--- a/discussion/testQuery.xlsx
+++ b/discussion/testQuery.xlsx
@@ -5,22 +5,26 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hansonr\git\IntervalStoreJ\discussion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5450" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Q1000" sheetId="8" r:id="rId1"/>
     <sheet name="Q1" sheetId="10" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="97">
   <si>
     <t>N</t>
   </si>
@@ -145,9 +149,6 @@
     <t># Query IntStoreLink store interval size 50 store sequence factor 10 query width -1000 query count 100000</t>
   </si>
   <si>
-    <t># dimensions [132 192882]</t>
-  </si>
-  <si>
     <t># Query IntStoreLink2 store interval size 50 store sequence factor 10 query width -1000 query count 100000</t>
   </si>
   <si>
@@ -157,7 +158,163 @@
     <t># Query NCList store interval size 50 store sequence factor 10 query width -1000 query count 100000</t>
   </si>
   <si>
-    <t># dimensions [6 245774]</t>
+    <t>[RemoteTestNG] detected TestNG version 6.14.2</t>
+  </si>
+  <si>
+    <t>Java version: 1.8.0_191</t>
+  </si>
+  <si>
+    <t>amd64 Windows 10 10.0</t>
+  </si>
+  <si>
+    <t>14 Aug 2019 13:28:33 GMT</t>
+  </si>
+  <si>
+    <t># dimensions [7 1000000]</t>
+  </si>
+  <si>
+    <t># Query IntStoreNCList0 store interval size 50 store sequence factor 10 query width -1000 query count 100000</t>
+  </si>
+  <si>
+    <t>IntStoreNCList0 query</t>
+  </si>
+  <si>
+    <t># dimensions [7 0]</t>
+  </si>
+  <si>
+    <t># dimensions [126 416364]</t>
+  </si>
+  <si>
+    <t># dimensions [7 528974]</t>
+  </si>
+  <si>
+    <t># Query NCList0 store interval size 50 store sequence factor 10 query width -1000 query count 100000</t>
+  </si>
+  <si>
+    <t>NCList0 query</t>
+  </si>
+  <si>
+    <t># dimensions [7 ?]</t>
+  </si>
+  <si>
+    <t># resultcounts [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 100, 113, 96, 112, 100, 93, 98, 112, 88]</t>
+  </si>
+  <si>
+    <t>amd64 Windows 10 10.0 cores:4</t>
+  </si>
+  <si>
+    <t>14 Aug 2019 13:48:18 GMT</t>
+  </si>
+  <si>
+    <t># dimensions [8 1000000]</t>
+  </si>
+  <si>
+    <t># Query IntStoreNCList0 store interval size 50 store sequence factor 10 query width -1 query count 100000</t>
+  </si>
+  <si>
+    <t># dimensions [8 0]</t>
+  </si>
+  <si>
+    <t># Query IntStoreLink store interval size 50 store sequence factor 10 query width -1 query count 100000</t>
+  </si>
+  <si>
+    <t># dimensions [135 416042]</t>
+  </si>
+  <si>
+    <t># Query IntStoreLink2 store interval size 50 store sequence factor 10 query width -1 query count 100000</t>
+  </si>
+  <si>
+    <t># dimensions [8 529158]</t>
+  </si>
+  <si>
+    <t># Query NCList0 store interval size 50 store sequence factor 10 query width -1 query count 100000</t>
+  </si>
+  <si>
+    <t># dimensions [8 ?]</t>
+  </si>
+  <si>
+    <t># resultcounts [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4]</t>
+  </si>
+  <si>
+    <t>14 Aug 2019 13:54:28 GMT</t>
+  </si>
+  <si>
+    <t># Query IntStoreNCList store interval size 50 store sequence factor 4 query width -1 query count 100000</t>
+  </si>
+  <si>
+    <t># dimensions [9 1000000]</t>
+  </si>
+  <si>
+    <t># Query IntStoreNCList0 store interval size 50 store sequence factor 4 query width -1 query count 100000</t>
+  </si>
+  <si>
+    <t># dimensions [9 0]</t>
+  </si>
+  <si>
+    <t># Query IntStoreLink store interval size 50 store sequence factor 4 query width -1 query count 100000</t>
+  </si>
+  <si>
+    <t># dimensions [5793 645566]</t>
+  </si>
+  <si>
+    <t># Query IntStoreLink2 store interval size 50 store sequence factor 4 query width -1 query count 100000</t>
+  </si>
+  <si>
+    <t># Query NCList store interval size 50 store sequence factor 4 query width -1 query count 100000</t>
+  </si>
+  <si>
+    <t># dimensions [9 335954]</t>
+  </si>
+  <si>
+    <t># Query NCList0 store interval size 50 store sequence factor 4 query width -1 query count 100000</t>
+  </si>
+  <si>
+    <t># dimensions [9 ?]</t>
+  </si>
+  <si>
+    <t># resultcounts [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6]</t>
+  </si>
+  <si>
+    <t>14 Aug 2019 13:59:06 GMT</t>
+  </si>
+  <si>
+    <t># dimensions [135 416009]</t>
+  </si>
+  <si>
+    <t># dimensions [8 529183]</t>
+  </si>
+  <si>
+    <t># resultcounts [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 107]</t>
+  </si>
+  <si>
+    <t>14 Aug 2019 14:01:02 GMT</t>
+  </si>
+  <si>
+    <t># Query IntStoreNCList store interval size 50 store sequence factor 4 query width -1000 query count 100000</t>
+  </si>
+  <si>
+    <t># Query IntStoreNCList0 store interval size 50 store sequence factor 4 query width -1000 query count 100000</t>
+  </si>
+  <si>
+    <t># Query IntStoreLink store interval size 50 store sequence factor 4 query width -1000 query count 100000</t>
+  </si>
+  <si>
+    <t># dimensions [5787 645571]</t>
+  </si>
+  <si>
+    <t># Query IntStoreLink2 store interval size 50 store sequence factor 4 query width -1000 query count 100000</t>
+  </si>
+  <si>
+    <t># Query NCList store interval size 50 store sequence factor 4 query width -1000 query count 100000</t>
+  </si>
+  <si>
+    <t># dimensions [9 335938]</t>
+  </si>
+  <si>
+    <t># Query NCList0 store interval size 50 store sequence factor 4 query width -1000 query count 100000</t>
+  </si>
+  <si>
+    <t># resultcounts [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 278]</t>
   </si>
 </sst>
 </file>
@@ -859,28 +1016,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>174.4</c:v>
+                  <c:v>185.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>179.8</c:v>
+                  <c:v>182.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>193.5</c:v>
+                  <c:v>197.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>222.4</c:v>
+                  <c:v>250.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>269.10000000000002</c:v>
+                  <c:v>263.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>389.9</c:v>
+                  <c:v>433.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>513.9</c:v>
+                  <c:v>587</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>582</c:v>
+                  <c:v>672.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,28 +1127,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>255.7</c:v>
+                  <c:v>280.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>273</c:v>
+                  <c:v>284.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>310</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>401.2</c:v>
+                  <c:v>382.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>507.4</c:v>
+                  <c:v>517.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>581</c:v>
+                  <c:v>582.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>677.8</c:v>
+                  <c:v>652.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>691.8</c:v>
+                  <c:v>899.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1081,28 +1238,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>87.3</c:v>
+                  <c:v>110.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.7</c:v>
+                  <c:v>113.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102.9</c:v>
+                  <c:v>123.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>104.5</c:v>
+                  <c:v>130.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.8</c:v>
+                  <c:v>137.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>139</c:v>
+                  <c:v>173.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>170.2</c:v>
+                  <c:v>204.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>225</c:v>
+                  <c:v>255.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1485,28 +1642,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>174.4</c:v>
+                  <c:v>185.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>179.8</c:v>
+                  <c:v>182.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>193.5</c:v>
+                  <c:v>197.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>222.4</c:v>
+                  <c:v>250.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>269.10000000000002</c:v>
+                  <c:v>263.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>389.9</c:v>
+                  <c:v>433.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>513.9</c:v>
+                  <c:v>587</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>582</c:v>
+                  <c:v>672.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1596,28 +1753,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>255.7</c:v>
+                  <c:v>280.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>273</c:v>
+                  <c:v>284.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>310</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>401.2</c:v>
+                  <c:v>382.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>507.4</c:v>
+                  <c:v>517.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>581</c:v>
+                  <c:v>582.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>677.8</c:v>
+                  <c:v>652.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>691.8</c:v>
+                  <c:v>899.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1707,28 +1864,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>87.3</c:v>
+                  <c:v>110.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.7</c:v>
+                  <c:v>113.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102.9</c:v>
+                  <c:v>123.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>104.5</c:v>
+                  <c:v>130.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.8</c:v>
+                  <c:v>137.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>139</c:v>
+                  <c:v>173.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>170.2</c:v>
+                  <c:v>204.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>225</c:v>
+                  <c:v>255.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2578,631 +2735,6 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>100,000-query (width 1)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> time/ms vs. N log N</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Q1'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>timeIntNC(len 50 factor 10)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Q1'!$C$2:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>7179.8112355640678</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17016.744289032718</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>93357.182677652017</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>216602.9475375468</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1149029.1296480584</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2630228.2830281034</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Q1'!$F$2:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>41.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>48.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>71.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>105.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>146.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>189.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4360-4962-AB52-6362B2EB1FBF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Q1'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>timeNCList (len 50, factor 10)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Q1'!$C$2:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>7179.8112355640678</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17016.744289032718</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>93357.182677652017</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>216602.9475375468</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1149029.1296480584</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2630228.2830281034</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Q1'!$G$2:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>33.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>72.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>116.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>142.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4360-4962-AB52-6362B2EB1FBF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Q1'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>timeIntLink (len 50, factor 10)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Q1'!$C$2:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>7179.8112355640678</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17016.744289032718</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>93357.182677652017</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>216602.9475375468</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1149029.1296480584</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2630228.2830281034</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Q1'!$H$2:$H$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>30.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>74.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>107.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4360-4962-AB52-6362B2EB1FBF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="422657936"/>
-        <c:axId val="422653016"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="422657936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="422653016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="422653016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="422657936"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3987,46 +3519,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5576,522 +5068,6 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6711,47 +5687,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6766,7 +5710,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7038,10 +5982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H52"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7082,16 +6026,16 @@
         <v>2154</v>
       </c>
       <c r="F2">
-        <f>D14</f>
-        <v>174.4</v>
+        <f>D18</f>
+        <v>185.9</v>
       </c>
       <c r="G2">
-        <f>D44</f>
-        <v>255.7</v>
+        <f>D62</f>
+        <v>280.5</v>
       </c>
       <c r="H2">
-        <f>D34</f>
-        <v>87.3</v>
+        <f>D51</f>
+        <v>110.4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -7107,16 +6051,16 @@
         <v>4641</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F9" si="2">D15</f>
-        <v>179.8</v>
+        <f t="shared" ref="F3:F9" si="2">D19</f>
+        <v>182.2</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G9" si="3">D45</f>
-        <v>273</v>
+        <f t="shared" ref="G3:G9" si="3">D63</f>
+        <v>284.3</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H9" si="4">D35</f>
-        <v>92.7</v>
+        <f t="shared" ref="H3:H9" si="4">D52</f>
+        <v>113.6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -7133,15 +6077,15 @@
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>193.5</v>
+        <v>197.7</v>
       </c>
       <c r="G4">
         <f t="shared" si="3"/>
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="H4">
         <f t="shared" si="4"/>
-        <v>102.9</v>
+        <v>123.7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -7158,15 +6102,15 @@
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>222.4</v>
+        <v>250.1</v>
       </c>
       <c r="G5">
         <f t="shared" si="3"/>
-        <v>401.2</v>
+        <v>382.7</v>
       </c>
       <c r="H5">
         <f t="shared" si="4"/>
-        <v>104.5</v>
+        <v>130.6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -7183,15 +6127,15 @@
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>269.10000000000002</v>
+        <v>263.89999999999998</v>
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
-        <v>507.4</v>
+        <v>517.9</v>
       </c>
       <c r="H6">
         <f t="shared" si="4"/>
-        <v>111.8</v>
+        <v>137.19999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -7208,15 +6152,15 @@
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>389.9</v>
+        <v>433.3</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>581</v>
+        <v>582.79999999999995</v>
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
-        <v>139</v>
+        <v>173.2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -7233,15 +6177,15 @@
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>513.9</v>
+        <v>587</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>677.8</v>
+        <v>652.79999999999995</v>
       </c>
       <c r="H8">
         <f t="shared" si="4"/>
-        <v>170.2</v>
+        <v>204.7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -7258,135 +6202,63 @@
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>582</v>
+        <v>672.1</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>691.8</v>
+        <v>899.5</v>
       </c>
       <c r="H9">
         <f t="shared" si="4"/>
-        <v>225</v>
+        <v>255.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>2154</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>174.4</v>
-      </c>
-      <c r="E14">
-        <v>12.5</v>
-      </c>
-      <c r="F14">
-        <v>6.75</v>
-      </c>
-      <c r="G14">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>4641</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>179.8</v>
-      </c>
-      <c r="E15">
-        <v>25.9</v>
-      </c>
-      <c r="F15">
-        <v>3.75</v>
-      </c>
-      <c r="G15">
-        <v>0.51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>10000</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>193.5</v>
-      </c>
-      <c r="E16">
-        <v>51.8</v>
-      </c>
-      <c r="F16">
-        <v>2.88</v>
-      </c>
-      <c r="G16">
-        <v>0.83</v>
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>21544</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>222.4</v>
-      </c>
-      <c r="E17">
-        <v>98</v>
-      </c>
-      <c r="F17">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="G17">
-        <v>3.35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -7394,22 +6266,22 @@
         <v>14</v>
       </c>
       <c r="B18">
-        <v>46415</v>
+        <v>2154</v>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
       <c r="D18">
-        <v>269.10000000000002</v>
+        <v>185.9</v>
       </c>
       <c r="E18">
-        <v>174.4</v>
+        <v>11.8</v>
       </c>
       <c r="F18">
-        <v>8.68</v>
+        <v>7.56</v>
       </c>
       <c r="G18">
-        <v>6.84</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -7417,22 +6289,22 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>100000</v>
+        <v>4641</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
       <c r="D19">
-        <v>389.9</v>
+        <v>182.2</v>
       </c>
       <c r="E19">
-        <v>268.60000000000002</v>
+        <v>25.5</v>
       </c>
       <c r="F19">
-        <v>25.99</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G19">
-        <v>20.62</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -7440,22 +6312,22 @@
         <v>14</v>
       </c>
       <c r="B20">
-        <v>215443</v>
+        <v>10000</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
       <c r="D20">
-        <v>513.9</v>
+        <v>197.7</v>
       </c>
       <c r="E20">
-        <v>429.1</v>
+        <v>50.7</v>
       </c>
       <c r="F20">
-        <v>24.17</v>
+        <v>3.08</v>
       </c>
       <c r="G20">
-        <v>23.78</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -7463,673 +6335,1296 @@
         <v>14</v>
       </c>
       <c r="B21">
-        <v>464158</v>
+        <v>21544</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="D21">
-        <v>582</v>
+        <v>250.1</v>
       </c>
       <c r="E21">
-        <v>832</v>
+        <v>88.4</v>
       </c>
       <c r="F21">
-        <v>34.03</v>
+        <v>14.8</v>
       </c>
       <c r="G21">
-        <v>66.58</v>
+        <v>4.2300000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>46415</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>263.89999999999998</v>
+      </c>
+      <c r="E22">
+        <v>177.1</v>
+      </c>
+      <c r="F22">
+        <v>6.86</v>
+      </c>
+      <c r="G22">
+        <v>5.21</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>100000</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>433.3</v>
+      </c>
+      <c r="E23">
+        <v>235.4</v>
+      </c>
+      <c r="F23">
+        <v>18.170000000000002</v>
+      </c>
+      <c r="G23">
+        <v>12.29</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>2154</v>
+        <v>215443</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
-        <v>85.8</v>
+        <v>587</v>
       </c>
       <c r="E24">
-        <v>25.1</v>
+        <v>369.7</v>
       </c>
       <c r="F24">
-        <v>0.99</v>
+        <v>17.66</v>
       </c>
       <c r="G24">
-        <v>0.28000000000000003</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>4641</v>
+        <v>464158</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
       <c r="D25">
-        <v>98.8</v>
+        <v>672.1</v>
       </c>
       <c r="E25">
-        <v>47.7</v>
+        <v>698.5</v>
       </c>
       <c r="F25">
-        <v>4.3499999999999996</v>
+        <v>22.62</v>
       </c>
       <c r="G25">
-        <v>1.96</v>
+        <v>26.45</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B26">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="C26">
         <v>10</v>
       </c>
       <c r="D26">
-        <v>99</v>
+        <v>648.5</v>
       </c>
       <c r="E26">
-        <v>101.1</v>
+        <v>1740.9</v>
       </c>
       <c r="F26">
-        <v>1.24</v>
+        <v>84.36</v>
       </c>
       <c r="G26">
-        <v>1.2</v>
+        <v>180.16</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>21544</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>111.8</v>
-      </c>
-      <c r="E27">
-        <v>193.9</v>
-      </c>
-      <c r="F27">
-        <v>3.2</v>
-      </c>
-      <c r="G27">
-        <v>4.66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28">
-        <v>46415</v>
-      </c>
-      <c r="C28">
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <v>117.4</v>
-      </c>
-      <c r="E28">
-        <v>395.3</v>
-      </c>
-      <c r="F28">
-        <v>0.68</v>
-      </c>
-      <c r="G28">
-        <v>2.29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B29">
-        <v>100000</v>
+        <v>2154</v>
       </c>
       <c r="C29">
         <v>10</v>
       </c>
       <c r="D29">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E29">
-        <v>589.20000000000005</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F29">
-        <v>2.36</v>
+        <v>6.9</v>
       </c>
       <c r="G29">
-        <v>8.34</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B30">
-        <v>215443</v>
+        <v>4641</v>
       </c>
       <c r="C30">
         <v>10</v>
       </c>
       <c r="D30">
-        <v>267.2</v>
+        <v>273.60000000000002</v>
       </c>
       <c r="E30">
-        <v>823.8</v>
+        <v>17.7</v>
       </c>
       <c r="F30">
-        <v>12.57</v>
+        <v>20.13</v>
       </c>
       <c r="G30">
-        <v>42.87</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B31">
-        <v>464158</v>
+        <v>10000</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
       <c r="D31">
-        <v>335.8</v>
+        <v>280.3</v>
       </c>
       <c r="E31">
-        <v>1389.2</v>
+        <v>37</v>
       </c>
       <c r="F31">
-        <v>7.46</v>
+        <v>19.16</v>
       </c>
       <c r="G31">
-        <v>34.54</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>21544</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>261.7</v>
+      </c>
+      <c r="E32">
+        <v>82.8</v>
+      </c>
+      <c r="F32">
+        <v>6.35</v>
+      </c>
+      <c r="G32">
+        <v>2.14</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>46415</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>364.6</v>
+      </c>
+      <c r="E33">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="F33">
+        <v>24.41</v>
+      </c>
+      <c r="G33">
+        <v>9.36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B34">
-        <v>2154</v>
+        <v>100000</v>
       </c>
       <c r="C34">
         <v>10</v>
       </c>
       <c r="D34">
-        <v>87.3</v>
+        <v>516.4</v>
       </c>
       <c r="E34">
-        <v>24.7</v>
+        <v>199.6</v>
       </c>
       <c r="F34">
-        <v>0.53</v>
+        <v>32.25</v>
       </c>
       <c r="G34">
-        <v>0.15</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B35">
-        <v>4641</v>
+        <v>215443</v>
       </c>
       <c r="C35">
         <v>10</v>
       </c>
       <c r="D35">
-        <v>92.7</v>
+        <v>571.5</v>
       </c>
       <c r="E35">
-        <v>50.1</v>
+        <v>395.4</v>
       </c>
       <c r="F35">
-        <v>0.7</v>
+        <v>35.630000000000003</v>
       </c>
       <c r="G35">
-        <v>0.38</v>
+        <v>33.07</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B36">
-        <v>10000</v>
+        <v>464158</v>
       </c>
       <c r="C36">
         <v>10</v>
       </c>
       <c r="D36">
-        <v>102.9</v>
+        <v>627.4</v>
       </c>
       <c r="E36">
-        <v>97.6</v>
+        <v>784.9</v>
       </c>
       <c r="F36">
-        <v>2.27</v>
+        <v>47.22</v>
       </c>
       <c r="G36">
-        <v>2.06</v>
+        <v>67.430000000000007</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B37">
-        <v>21544</v>
+        <v>1000000</v>
       </c>
       <c r="C37">
         <v>10</v>
       </c>
       <c r="D37">
-        <v>104.5</v>
+        <v>738.9</v>
       </c>
       <c r="E37">
-        <v>206.1</v>
+        <v>1404</v>
       </c>
       <c r="F37">
-        <v>0.28999999999999998</v>
+        <v>45.03</v>
       </c>
       <c r="G37">
-        <v>0.56999999999999995</v>
+        <v>94.2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>46415</v>
-      </c>
-      <c r="C38">
-        <v>10</v>
-      </c>
-      <c r="D38">
-        <v>111.8</v>
-      </c>
-      <c r="E38">
-        <v>415.3</v>
-      </c>
-      <c r="F38">
-        <v>0.69</v>
-      </c>
-      <c r="G38">
-        <v>2.5099999999999998</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>100000</v>
-      </c>
-      <c r="C39">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>139</v>
-      </c>
-      <c r="E39">
-        <v>728.7</v>
-      </c>
-      <c r="F39">
-        <v>5.72</v>
-      </c>
-      <c r="G39">
-        <v>25.42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B40">
-        <v>215443</v>
+        <v>2154</v>
       </c>
       <c r="C40">
         <v>10</v>
       </c>
       <c r="D40">
-        <v>170.2</v>
+        <v>89.5</v>
       </c>
       <c r="E40">
-        <v>1266.9000000000001</v>
+        <v>24.1</v>
       </c>
       <c r="F40">
-        <v>1.53</v>
+        <v>0.9</v>
       </c>
       <c r="G40">
-        <v>10.78</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B41">
-        <v>464158</v>
+        <v>4641</v>
       </c>
       <c r="C41">
         <v>10</v>
       </c>
       <c r="D41">
-        <v>225</v>
+        <v>93.6</v>
       </c>
       <c r="E41">
-        <v>2083.9</v>
+        <v>49.6</v>
       </c>
       <c r="F41">
-        <v>8.09</v>
+        <v>1.17</v>
       </c>
       <c r="G41">
-        <v>64.87</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <v>10000</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>102.8</v>
+      </c>
+      <c r="E42">
+        <v>97.3</v>
+      </c>
+      <c r="F42">
+        <v>0.49</v>
+      </c>
+      <c r="G42">
+        <v>0.47</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="B43">
+        <v>21544</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="E43">
+        <v>171.1</v>
+      </c>
+      <c r="F43">
+        <v>11.9</v>
+      </c>
+      <c r="G43">
+        <v>11.07</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B44">
-        <v>2154</v>
+        <v>46415</v>
       </c>
       <c r="C44">
         <v>10</v>
       </c>
       <c r="D44">
-        <v>255.7</v>
+        <v>121.4</v>
       </c>
       <c r="E44">
-        <v>8.4</v>
+        <v>382.6</v>
       </c>
       <c r="F44">
-        <v>4.0999999999999996</v>
+        <v>1.31</v>
       </c>
       <c r="G44">
-        <v>0.13</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B45">
-        <v>4641</v>
+        <v>100000</v>
       </c>
       <c r="C45">
         <v>10</v>
       </c>
       <c r="D45">
-        <v>273</v>
+        <v>177.4</v>
       </c>
       <c r="E45">
-        <v>17</v>
+        <v>568.1</v>
       </c>
       <c r="F45">
-        <v>4.57</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="G45">
-        <v>0.3</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B46">
-        <v>10000</v>
+        <v>215443</v>
       </c>
       <c r="C46">
         <v>10</v>
       </c>
       <c r="D46">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="E46">
-        <v>32.299999999999997</v>
+        <v>778.7</v>
       </c>
       <c r="F46">
-        <v>3.64</v>
+        <v>11.78</v>
       </c>
       <c r="G46">
-        <v>0.41</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B47">
-        <v>21544</v>
+        <v>464158</v>
       </c>
       <c r="C47">
         <v>10</v>
       </c>
       <c r="D47">
-        <v>401.2</v>
+        <v>370.6</v>
       </c>
       <c r="E47">
-        <v>54.7</v>
+        <v>1262.5</v>
       </c>
       <c r="F47">
-        <v>19.46</v>
+        <v>11.33</v>
       </c>
       <c r="G47">
-        <v>2.2599999999999998</v>
+        <v>37.520000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B48">
-        <v>46415</v>
+        <v>1000000</v>
       </c>
       <c r="C48">
         <v>10</v>
       </c>
       <c r="D48">
-        <v>507.4</v>
+        <v>425.8</v>
       </c>
       <c r="E48">
-        <v>94</v>
+        <v>2373</v>
       </c>
       <c r="F48">
-        <v>26.35</v>
+        <v>13.3</v>
       </c>
       <c r="G48">
-        <v>5.45</v>
+        <v>88.39</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49">
-        <v>100000</v>
-      </c>
-      <c r="C49">
-        <v>10</v>
-      </c>
-      <c r="D49">
-        <v>581</v>
-      </c>
-      <c r="E49">
-        <v>176.7</v>
-      </c>
-      <c r="F49">
-        <v>28.32</v>
-      </c>
-      <c r="G49">
-        <v>10.62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50">
-        <v>215443</v>
-      </c>
-      <c r="C50">
-        <v>10</v>
-      </c>
-      <c r="D50">
-        <v>677.8</v>
-      </c>
-      <c r="E50">
-        <v>321.8</v>
-      </c>
-      <c r="F50">
-        <v>23.03</v>
-      </c>
-      <c r="G50">
-        <v>12.89</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B51">
-        <v>464158</v>
+        <v>2154</v>
       </c>
       <c r="C51">
         <v>10</v>
       </c>
       <c r="D51">
-        <v>691.8</v>
+        <v>110.4</v>
       </c>
       <c r="E51">
-        <v>708.7</v>
+        <v>19.5</v>
       </c>
       <c r="F51">
-        <v>48.26</v>
+        <v>1.34</v>
       </c>
       <c r="G51">
-        <v>60.47</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="B52">
+        <v>4641</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>113.6</v>
+      </c>
+      <c r="E52">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="F52">
+        <v>0.61</v>
+      </c>
+      <c r="G52">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53">
+        <v>10000</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>123.7</v>
+      </c>
+      <c r="E53">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="F53">
+        <v>3.69</v>
+      </c>
+      <c r="G53">
+        <v>1.98</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>42</v>
+      </c>
+      <c r="B54">
+        <v>21544</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>130.6</v>
+      </c>
+      <c r="E54">
+        <v>165.5</v>
+      </c>
+      <c r="F54">
+        <v>2.5</v>
+      </c>
+      <c r="G54">
+        <v>2.93</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="B55">
+        <v>46415</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="E55">
+        <v>338.8</v>
+      </c>
+      <c r="F55">
+        <v>1.82</v>
+      </c>
+      <c r="G55">
+        <v>4.17</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>42</v>
+      </c>
+      <c r="B56">
+        <v>100000</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>173.2</v>
+      </c>
+      <c r="E56">
+        <v>583.6</v>
+      </c>
+      <c r="F56">
+        <v>6.18</v>
+      </c>
+      <c r="G56">
+        <v>19.55</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="B57">
+        <v>215443</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>204.7</v>
+      </c>
+      <c r="E57">
+        <v>1054.9000000000001</v>
+      </c>
+      <c r="F57">
+        <v>3.41</v>
+      </c>
+      <c r="G57">
+        <v>17.170000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="B58">
+        <v>464158</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>255.2</v>
+      </c>
+      <c r="E58">
+        <v>1833.1</v>
+      </c>
+      <c r="F58">
+        <v>7.94</v>
+      </c>
+      <c r="G58">
+        <v>50.53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59">
+        <v>1000000</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>299.39999999999998</v>
+      </c>
+      <c r="E59">
+        <v>3355.6</v>
+      </c>
+      <c r="F59">
+        <v>7.1</v>
+      </c>
+      <c r="G59">
+        <v>75.55</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="B62">
+        <v>2154</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>280.5</v>
+      </c>
+      <c r="E62">
+        <v>7.8</v>
+      </c>
+      <c r="F62">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="G62">
+        <v>0.25</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63">
+        <v>4641</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>284.3</v>
+      </c>
+      <c r="E63">
+        <v>16.3</v>
+      </c>
+      <c r="F63">
+        <v>3.5</v>
+      </c>
+      <c r="G63">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64">
+        <v>10000</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>322</v>
+      </c>
+      <c r="E64">
+        <v>31.3</v>
+      </c>
+      <c r="F64">
+        <v>9.51</v>
+      </c>
+      <c r="G64">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>21544</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>382.7</v>
+      </c>
+      <c r="E65">
+        <v>57.3</v>
+      </c>
+      <c r="F65">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="G65">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <v>46415</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>517.9</v>
+      </c>
+      <c r="E66">
+        <v>90.7</v>
+      </c>
+      <c r="F66">
+        <v>18.05</v>
+      </c>
+      <c r="G66">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67">
+        <v>100000</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>582.79999999999995</v>
+      </c>
+      <c r="E67">
+        <v>178.3</v>
+      </c>
+      <c r="F67">
+        <v>34.81</v>
+      </c>
+      <c r="G67">
+        <v>12.48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68">
+        <v>215443</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>652.79999999999995</v>
+      </c>
+      <c r="E68">
+        <v>342.1</v>
+      </c>
+      <c r="F68">
+        <v>38.74</v>
+      </c>
+      <c r="G68">
+        <v>22.66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69">
+        <v>464158</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>899.5</v>
+      </c>
+      <c r="E69">
+        <v>575.4</v>
+      </c>
+      <c r="F69">
+        <v>94.25</v>
+      </c>
+      <c r="G69">
+        <v>64.02</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70">
+        <v>1000000</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>597.70000000000005</v>
+      </c>
+      <c r="E70">
+        <v>1693.4</v>
+      </c>
+      <c r="F70">
+        <v>22.52</v>
+      </c>
+      <c r="G70">
+        <v>60.82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73">
+        <v>2154</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>243.1</v>
+      </c>
+      <c r="E73">
+        <v>8.9</v>
+      </c>
+      <c r="F73">
+        <v>1.77</v>
+      </c>
+      <c r="G73">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74">
+        <v>4641</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>280.8</v>
+      </c>
+      <c r="E74">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F74">
+        <v>5.38</v>
+      </c>
+      <c r="G74">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75">
+        <v>10000</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>311</v>
+      </c>
+      <c r="E75">
+        <v>32.4</v>
+      </c>
+      <c r="F75">
+        <v>8.93</v>
+      </c>
+      <c r="G75">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76">
+        <v>21544</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>373.8</v>
+      </c>
+      <c r="E76">
+        <v>58.6</v>
+      </c>
+      <c r="F76">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="G76">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77">
+        <v>46415</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>452.9</v>
+      </c>
+      <c r="E77">
+        <v>105.8</v>
+      </c>
+      <c r="F77">
+        <v>25.13</v>
+      </c>
+      <c r="G77">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78">
+        <v>100000</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>564</v>
+      </c>
+      <c r="E78">
+        <v>182.9</v>
+      </c>
+      <c r="F78">
+        <v>30.24</v>
+      </c>
+      <c r="G78">
+        <v>11.73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79">
+        <v>215443</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>659.5</v>
+      </c>
+      <c r="E79">
+        <v>341.6</v>
+      </c>
+      <c r="F79">
+        <v>43.54</v>
+      </c>
+      <c r="G79">
+        <v>25.31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>55</v>
+      </c>
+      <c r="B80">
+        <v>464158</v>
+      </c>
+      <c r="C80">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>656.8</v>
+      </c>
+      <c r="E80">
+        <v>740.5</v>
+      </c>
+      <c r="F80">
+        <v>47.12</v>
+      </c>
+      <c r="G80">
+        <v>53.07</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81">
+        <v>1000000</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>625.70000000000005</v>
+      </c>
+      <c r="E81">
+        <v>1695.4</v>
+      </c>
+      <c r="F81">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="G81">
+        <v>100.43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>27</v>
       </c>
     </row>
@@ -9043,4 +8538,1311 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:G43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1000000</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>220.1</v>
+      </c>
+      <c r="E8">
+        <v>4696.5</v>
+      </c>
+      <c r="F8">
+        <v>13.95</v>
+      </c>
+      <c r="G8">
+        <v>269.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>1000000</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>227.5</v>
+      </c>
+      <c r="E11">
+        <v>4501.7</v>
+      </c>
+      <c r="F11">
+        <v>12.07</v>
+      </c>
+      <c r="G11">
+        <v>223.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>1000000</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="E14">
+        <v>6712.5</v>
+      </c>
+      <c r="F14">
+        <v>2.6</v>
+      </c>
+      <c r="G14">
+        <v>106.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>1000000</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>149.6</v>
+      </c>
+      <c r="E17">
+        <v>6718.7</v>
+      </c>
+      <c r="F17">
+        <v>3.81</v>
+      </c>
+      <c r="G17">
+        <v>143.79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>1000000</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>142.9</v>
+      </c>
+      <c r="E20">
+        <v>7055.9</v>
+      </c>
+      <c r="F20">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="G20">
+        <v>199.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>1000000</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>147.5</v>
+      </c>
+      <c r="E23">
+        <v>6962.1</v>
+      </c>
+      <c r="F23">
+        <v>9.26</v>
+      </c>
+      <c r="G23">
+        <v>331.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:G43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1000000</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>213.9</v>
+      </c>
+      <c r="E8">
+        <v>4697.3</v>
+      </c>
+      <c r="F8">
+        <v>5.24</v>
+      </c>
+      <c r="G8">
+        <v>102.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>1000000</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>284.89999999999998</v>
+      </c>
+      <c r="E11">
+        <v>3621.9</v>
+      </c>
+      <c r="F11">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="G11">
+        <v>210.79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>1000000</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>174.4</v>
+      </c>
+      <c r="E14">
+        <v>5745.6</v>
+      </c>
+      <c r="F14">
+        <v>2.7</v>
+      </c>
+      <c r="G14">
+        <v>81.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>1000000</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>176</v>
+      </c>
+      <c r="E17">
+        <v>5732.8</v>
+      </c>
+      <c r="F17">
+        <v>6.14</v>
+      </c>
+      <c r="G17">
+        <v>165.98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>1000000</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>161.5</v>
+      </c>
+      <c r="E20">
+        <v>6221.3</v>
+      </c>
+      <c r="F20">
+        <v>3.82</v>
+      </c>
+      <c r="G20">
+        <v>133.29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>1000000</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>238.4</v>
+      </c>
+      <c r="E23">
+        <v>5626.4</v>
+      </c>
+      <c r="F23">
+        <v>74.33</v>
+      </c>
+      <c r="G23">
+        <v>522.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:G43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1000000</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>480.3</v>
+      </c>
+      <c r="E8">
+        <v>2143.5</v>
+      </c>
+      <c r="F8">
+        <v>29.69</v>
+      </c>
+      <c r="G8">
+        <v>111.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>1000000</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>563.1</v>
+      </c>
+      <c r="E11">
+        <v>1851.9</v>
+      </c>
+      <c r="F11">
+        <v>37.869999999999997</v>
+      </c>
+      <c r="G11">
+        <v>127.76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>1000000</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>425.8</v>
+      </c>
+      <c r="E14">
+        <v>2386.1999999999998</v>
+      </c>
+      <c r="F14">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="G14">
+        <v>111.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>1000000</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>273.60000000000002</v>
+      </c>
+      <c r="E17">
+        <v>3667.8</v>
+      </c>
+      <c r="F17">
+        <v>5.45</v>
+      </c>
+      <c r="G17">
+        <v>74.23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>1000000</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>675.9</v>
+      </c>
+      <c r="E20">
+        <v>1572.3</v>
+      </c>
+      <c r="F20">
+        <v>58.37</v>
+      </c>
+      <c r="G20">
+        <v>120.54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>1000000</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>561.5</v>
+      </c>
+      <c r="E23">
+        <v>1798.7</v>
+      </c>
+      <c r="F23">
+        <v>19.86</v>
+      </c>
+      <c r="G23">
+        <v>56.85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1000000</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>964</v>
+      </c>
+      <c r="E8">
+        <v>1051.8</v>
+      </c>
+      <c r="F8">
+        <v>38.31</v>
+      </c>
+      <c r="G8">
+        <v>40.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>1000000</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>1087</v>
+      </c>
+      <c r="E11">
+        <v>925.2</v>
+      </c>
+      <c r="F11">
+        <v>27.63</v>
+      </c>
+      <c r="G11">
+        <v>22.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>1000000</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>623.70000000000005</v>
+      </c>
+      <c r="E14">
+        <v>1717.1</v>
+      </c>
+      <c r="F14">
+        <v>55.6</v>
+      </c>
+      <c r="G14">
+        <v>148.91999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>1000000</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>396.3</v>
+      </c>
+      <c r="E17">
+        <v>2527.8000000000002</v>
+      </c>
+      <c r="F17">
+        <v>5.59</v>
+      </c>
+      <c r="G17">
+        <v>33.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>1000000</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>1399.2</v>
+      </c>
+      <c r="E20">
+        <v>752.2</v>
+      </c>
+      <c r="F20">
+        <v>113.73</v>
+      </c>
+      <c r="G20">
+        <v>51.47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>1000000</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>1384.1</v>
+      </c>
+      <c r="E23">
+        <v>748.7</v>
+      </c>
+      <c r="F23">
+        <v>96.74</v>
+      </c>
+      <c r="G23">
+        <v>41.92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/discussion/testQuery.xlsx
+++ b/discussion/testQuery.xlsx
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="107">
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>NlogN</t>
   </si>
   <si>
     <t>logN</t>
@@ -1012,10 +1009,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>S50Q1000!$D$2:$D$9</c:f>
+              <c:f>S50Q1000!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3.3332456989619628</c:v>
                 </c:pt>
@@ -1039,16 +1036,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.6666658401408645</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>S50Q1000!$F$2:$F$9</c:f>
+              <c:f>S50Q1000!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>160.4</c:v>
                 </c:pt>
@@ -1072,6 +1072,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>327.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>363.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1123,10 +1126,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>S50Q1000!$D$2:$D$9</c:f>
+              <c:f>S50Q1000!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3.3332456989619628</c:v>
                 </c:pt>
@@ -1150,16 +1153,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.6666658401408645</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>S50Q1000!$G$2:$G$9</c:f>
+              <c:f>S50Q1000!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>222.9</c:v>
                 </c:pt>
@@ -1183,6 +1189,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>435.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>467.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1234,10 +1243,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>S50Q1000!$D$2:$D$9</c:f>
+              <c:f>S50Q1000!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3.3332456989619628</c:v>
                 </c:pt>
@@ -1261,39 +1270,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.6666658401408645</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>S50Q1000!$H$2:$H$9</c:f>
+              <c:f>S50Q1000!$H$2:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>83.1</c:v>
+                  <c:v>88.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87</c:v>
+                  <c:v>90.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.7</c:v>
+                  <c:v>95.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.6</c:v>
+                  <c:v>99.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.7</c:v>
+                  <c:v>105.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120</c:v>
+                  <c:v>121.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>146</c:v>
+                  <c:v>144.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>170.2</c:v>
+                  <c:v>169.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>189.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,6 +1335,7 @@
         <c:axId val="422657936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6"/>
           <c:min val="3"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1638,10 +1654,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>S50Q1000!$E$2:$E$9</c:f>
+              <c:f>S50Q1000!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2154</c:v>
                 </c:pt>
@@ -1665,16 +1681,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>464158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>S50Q1000!$F$2:$F$9</c:f>
+              <c:f>S50Q1000!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>160.4</c:v>
                 </c:pt>
@@ -1698,6 +1717,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>327.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>363.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1749,10 +1771,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>S50Q1000!$E$2:$E$9</c:f>
+              <c:f>S50Q1000!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2154</c:v>
                 </c:pt>
@@ -1776,16 +1798,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>464158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>S50Q1000!$G$2:$G$9</c:f>
+              <c:f>S50Q1000!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>222.9</c:v>
                 </c:pt>
@@ -1809,6 +1834,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>435.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>467.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,10 +1888,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>S50Q1000!$E$2:$E$9</c:f>
+              <c:f>S50Q1000!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2154</c:v>
                 </c:pt>
@@ -1887,39 +1915,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>464158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>S50Q1000!$H$2:$H$9</c:f>
+              <c:f>S50Q1000!$H$2:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>83.1</c:v>
+                  <c:v>88.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87</c:v>
+                  <c:v>90.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.7</c:v>
+                  <c:v>95.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.6</c:v>
+                  <c:v>99.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.7</c:v>
+                  <c:v>105.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120</c:v>
+                  <c:v>121.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>146</c:v>
+                  <c:v>144.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>170.2</c:v>
+                  <c:v>169.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>189.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1946,6 +1980,7 @@
         <c:axId val="422657936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2187,7 +2222,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2702,7 +2736,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2813,7 +2846,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3327,7 +3359,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3438,7 +3469,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3953,7 +3983,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4064,7 +4093,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4578,7 +4606,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7993,7 +8020,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8017,13 +8044,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8449,10 +8476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8462,35 +8489,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2">
-        <f>D2*E2</f>
-        <v>7179.8112355640678</v>
-      </c>
       <c r="D2">
         <f>LOG10(E2)</f>
         <v>3.3332456989619628</v>
@@ -8499,48 +8516,40 @@
         <v>2154</v>
       </c>
       <c r="F2">
-        <f>D18</f>
+        <f>D19</f>
         <v>160.4</v>
       </c>
       <c r="G2">
-        <f>D62</f>
+        <f>D63</f>
         <v>222.9</v>
       </c>
       <c r="H2">
-        <f>D51</f>
-        <v>83.1</v>
+        <f>D41</f>
+        <v>88.2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C3">
-        <f t="shared" ref="C3:C9" si="0">D3*E3</f>
-        <v>17016.744289032718</v>
-      </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="1">LOG10(E3)</f>
+        <f t="shared" ref="D3:D6" si="0">LOG10(E3)</f>
         <v>3.6666115684190301</v>
       </c>
       <c r="E3">
         <v>4641</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F9" si="2">D19</f>
+        <f>D20</f>
         <v>165.1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G9" si="3">D63</f>
+        <f>D64</f>
         <v>232.8</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H9" si="4">D52</f>
-        <v>87</v>
+        <f t="shared" ref="H3:H10" si="1">D42</f>
+        <v>90.6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>40000</v>
-      </c>
       <c r="D4">
         <f>LOG10(E4)</f>
         <v>4</v>
@@ -8549,1100 +8558,1078 @@
         <v>10000</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
+        <f>D21</f>
         <v>173.5</v>
       </c>
       <c r="G4">
-        <f t="shared" si="3"/>
+        <f>D65</f>
         <v>241.8</v>
       </c>
       <c r="H4">
-        <f t="shared" si="4"/>
-        <v>89.7</v>
+        <f t="shared" si="1"/>
+        <v>95.4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C5">
+      <c r="D5">
         <f t="shared" si="0"/>
-        <v>93357.182677652017</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
         <v>4.3333263404034543</v>
       </c>
       <c r="E5">
         <v>21544</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
+        <f>D22</f>
         <v>183.9</v>
       </c>
       <c r="G5">
-        <f t="shared" si="3"/>
+        <f>D66</f>
         <v>262.60000000000002</v>
       </c>
       <c r="H5">
-        <f t="shared" si="4"/>
-        <v>93.6</v>
+        <f t="shared" si="1"/>
+        <v>99.4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C6">
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>216602.9475375468</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
         <v>4.6666583547893312</v>
       </c>
       <c r="E6">
         <v>46415</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
+        <f>D23</f>
         <v>201.2</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
+        <f>D67</f>
         <v>306.89999999999998</v>
       </c>
       <c r="H6">
-        <f t="shared" si="4"/>
-        <v>99.7</v>
+        <f t="shared" si="1"/>
+        <v>105.7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
       <c r="D7">
-        <f t="shared" ref="D7:D8" si="5">LOG10(E7)</f>
+        <f t="shared" ref="D7:D9" si="2">LOG10(E7)</f>
         <v>5</v>
       </c>
       <c r="E7">
         <v>100000</v>
       </c>
       <c r="F7">
+        <f>D24</f>
+        <v>244.8</v>
+      </c>
+      <c r="G7">
+        <f>D68</f>
+        <v>365.3</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>121.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D8">
         <f t="shared" si="2"/>
-        <v>244.8</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>365.3</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>1149029.1296480584</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="5"/>
         <v>5.3333323879079773</v>
       </c>
       <c r="E8">
         <v>215443</v>
       </c>
       <c r="F8">
+        <f>D25</f>
+        <v>289.7</v>
+      </c>
+      <c r="G8">
+        <f>D69</f>
+        <v>406.5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>144.30000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D9">
         <f t="shared" si="2"/>
-        <v>289.7</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>406.5</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="4"/>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>2630228.2830281034</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ref="D9" si="6">LOG10(E9)</f>
         <v>5.6666658401408645</v>
       </c>
       <c r="E9">
         <v>464158</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F9:F10" si="3">D26</f>
         <v>327.3</v>
       </c>
       <c r="G9">
+        <f t="shared" ref="G9:G10" si="4">D70</f>
+        <v>435.1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>169.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <f t="shared" ref="D10" si="5">LOG10(E10)</f>
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>1000000</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="3"/>
-        <v>435.1</v>
-      </c>
-      <c r="H9">
+        <v>363.7</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="4"/>
-        <v>170.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>33</v>
+        <v>467.8</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>189.1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>3</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>2154</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>160.4</v>
-      </c>
-      <c r="E18">
-        <v>13.5</v>
-      </c>
-      <c r="F18">
-        <v>2.93</v>
-      </c>
-      <c r="G18">
-        <v>0.24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>4641</v>
+        <v>2154</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
       <c r="D19">
-        <v>165.1</v>
+        <v>160.4</v>
       </c>
       <c r="E19">
-        <v>28.1</v>
+        <v>13.5</v>
       </c>
       <c r="F19">
-        <v>0.54</v>
+        <v>2.93</v>
       </c>
       <c r="G19">
-        <v>0.09</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>10000</v>
+        <v>4641</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
       <c r="D20">
-        <v>173.5</v>
+        <v>165.1</v>
       </c>
       <c r="E20">
-        <v>57.6</v>
+        <v>28.1</v>
       </c>
       <c r="F20">
-        <v>0.7</v>
+        <v>0.54</v>
       </c>
       <c r="G20">
-        <v>0.23</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>21544</v>
+        <v>10000</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="D21">
-        <v>183.9</v>
+        <v>173.5</v>
       </c>
       <c r="E21">
-        <v>117.2</v>
+        <v>57.6</v>
       </c>
       <c r="F21">
-        <v>0.48</v>
+        <v>0.7</v>
       </c>
       <c r="G21">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22">
-        <v>46415</v>
+        <v>21544</v>
       </c>
       <c r="C22">
         <v>10</v>
       </c>
       <c r="D22">
-        <v>201.2</v>
+        <v>183.9</v>
       </c>
       <c r="E22">
-        <v>230.7</v>
+        <v>117.2</v>
       </c>
       <c r="F22">
-        <v>0.79</v>
+        <v>0.48</v>
       </c>
       <c r="G22">
-        <v>0.89</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23">
-        <v>100000</v>
+        <v>46415</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="D23">
-        <v>244.8</v>
+        <v>201.2</v>
       </c>
       <c r="E23">
-        <v>408.4</v>
+        <v>230.7</v>
       </c>
       <c r="F23">
-        <v>0.54</v>
+        <v>0.79</v>
       </c>
       <c r="G23">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24">
-        <v>215443</v>
+        <v>100000</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
-        <v>289.7</v>
+        <v>244.8</v>
       </c>
       <c r="E24">
-        <v>743.7</v>
+        <v>408.4</v>
       </c>
       <c r="F24">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
       <c r="G24">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25">
-        <v>464158</v>
+        <v>215443</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
       <c r="D25">
-        <v>327.3</v>
+        <v>289.7</v>
       </c>
       <c r="E25">
-        <v>1418.4</v>
+        <v>743.7</v>
       </c>
       <c r="F25">
-        <v>1.1599999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="G25">
-        <v>4.95</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26">
-        <v>1000000</v>
+        <v>464158</v>
       </c>
       <c r="C26">
         <v>10</v>
       </c>
       <c r="D26">
-        <v>363.7</v>
+        <v>327.3</v>
       </c>
       <c r="E26">
-        <v>2749.4</v>
+        <v>1418.4</v>
       </c>
       <c r="F26">
-        <v>0.56999999999999995</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G26">
-        <v>4.33</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>1000000</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>363.7</v>
+      </c>
+      <c r="E27">
+        <v>2749.4</v>
+      </c>
+      <c r="F27">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G27">
+        <v>4.33</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29">
-        <v>2154</v>
-      </c>
-      <c r="C29">
-        <v>10</v>
-      </c>
-      <c r="D29">
-        <v>183.3</v>
-      </c>
-      <c r="E29">
-        <v>11.8</v>
-      </c>
-      <c r="F29">
-        <v>3.89</v>
-      </c>
-      <c r="G29">
-        <v>0.22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>4641</v>
+        <v>2154</v>
       </c>
       <c r="C30">
         <v>10</v>
       </c>
       <c r="D30">
-        <v>190.5</v>
+        <v>183.3</v>
       </c>
       <c r="E30">
-        <v>24.4</v>
+        <v>11.8</v>
       </c>
       <c r="F30">
-        <v>1.6</v>
+        <v>3.89</v>
       </c>
       <c r="G30">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>10000</v>
+        <v>4641</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
       <c r="D31">
-        <v>197.1</v>
+        <v>190.5</v>
       </c>
       <c r="E31">
-        <v>50.7</v>
+        <v>24.4</v>
       </c>
       <c r="F31">
-        <v>0.56000000000000005</v>
+        <v>1.6</v>
       </c>
       <c r="G31">
-        <v>0.14000000000000001</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>21544</v>
+        <v>10000</v>
       </c>
       <c r="C32">
         <v>10</v>
       </c>
       <c r="D32">
-        <v>207</v>
+        <v>197.1</v>
       </c>
       <c r="E32">
-        <v>104.1</v>
+        <v>50.7</v>
       </c>
       <c r="F32">
-        <v>0.46</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G32">
-        <v>0.23</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>46415</v>
+        <v>21544</v>
       </c>
       <c r="C33">
         <v>10</v>
       </c>
       <c r="D33">
-        <v>225.2</v>
+        <v>207</v>
       </c>
       <c r="E33">
-        <v>206.1</v>
+        <v>104.1</v>
       </c>
       <c r="F33">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="G33">
-        <v>0.39</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>100000</v>
+        <v>46415</v>
       </c>
       <c r="C34">
         <v>10</v>
       </c>
       <c r="D34">
-        <v>286.5</v>
+        <v>225.2</v>
       </c>
       <c r="E34">
-        <v>351.2</v>
+        <v>206.1</v>
       </c>
       <c r="F34">
-        <v>8.01</v>
+        <v>0.43</v>
       </c>
       <c r="G34">
-        <v>8.6300000000000008</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>215443</v>
+        <v>100000</v>
       </c>
       <c r="C35">
         <v>10</v>
       </c>
       <c r="D35">
-        <v>315.60000000000002</v>
+        <v>286.5</v>
       </c>
       <c r="E35">
-        <v>683</v>
+        <v>351.2</v>
       </c>
       <c r="F35">
-        <v>2.0299999999999998</v>
+        <v>8.01</v>
       </c>
       <c r="G35">
-        <v>4.21</v>
+        <v>8.6300000000000008</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>464158</v>
+        <v>215443</v>
       </c>
       <c r="C36">
         <v>10</v>
       </c>
       <c r="D36">
-        <v>354.2</v>
+        <v>315.60000000000002</v>
       </c>
       <c r="E36">
-        <v>1310.4000000000001</v>
+        <v>683</v>
       </c>
       <c r="F36">
-        <v>0.59</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="G36">
-        <v>2.19</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>1000000</v>
+        <v>464158</v>
       </c>
       <c r="C37">
         <v>10</v>
       </c>
       <c r="D37">
-        <v>389.6</v>
+        <v>354.2</v>
       </c>
       <c r="E37">
-        <v>2567</v>
+        <v>1310.4000000000001</v>
       </c>
       <c r="F37">
-        <v>0.99</v>
+        <v>0.59</v>
       </c>
       <c r="G37">
-        <v>6.6</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1000000</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>389.6</v>
+      </c>
+      <c r="E38">
+        <v>2567</v>
+      </c>
+      <c r="F38">
+        <v>0.99</v>
+      </c>
+      <c r="G38">
+        <v>6.6</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40">
-        <v>2154</v>
-      </c>
-      <c r="C40">
-        <v>10</v>
-      </c>
-      <c r="D40">
-        <v>88.2</v>
-      </c>
-      <c r="E40">
-        <v>24.5</v>
-      </c>
-      <c r="F40">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="G40">
-        <v>0.52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41">
-        <v>4641</v>
+        <v>2154</v>
       </c>
       <c r="C41">
         <v>10</v>
       </c>
       <c r="D41">
-        <v>90.6</v>
+        <v>88.2</v>
       </c>
       <c r="E41">
-        <v>51.2</v>
+        <v>24.5</v>
       </c>
       <c r="F41">
-        <v>0.62</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="G41">
-        <v>0.34</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>10000</v>
+        <v>4641</v>
       </c>
       <c r="C42">
         <v>10</v>
       </c>
       <c r="D42">
-        <v>95.4</v>
+        <v>90.6</v>
       </c>
       <c r="E42">
-        <v>104.8</v>
+        <v>51.2</v>
       </c>
       <c r="F42">
-        <v>0.41</v>
+        <v>0.62</v>
       </c>
       <c r="G42">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43">
-        <v>21544</v>
+        <v>10000</v>
       </c>
       <c r="C43">
         <v>10</v>
       </c>
       <c r="D43">
-        <v>99.4</v>
+        <v>95.4</v>
       </c>
       <c r="E43">
-        <v>216.8</v>
+        <v>104.8</v>
       </c>
       <c r="F43">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="G43">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44">
-        <v>46415</v>
+        <v>21544</v>
       </c>
       <c r="C44">
         <v>10</v>
       </c>
       <c r="D44">
-        <v>105.7</v>
+        <v>99.4</v>
       </c>
       <c r="E44">
-        <v>439.3</v>
+        <v>216.8</v>
       </c>
       <c r="F44">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="G44">
-        <v>1.43</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B45">
-        <v>100000</v>
+        <v>46415</v>
       </c>
       <c r="C45">
         <v>10</v>
       </c>
       <c r="D45">
-        <v>121.5</v>
+        <v>105.7</v>
       </c>
       <c r="E45">
-        <v>823.4</v>
+        <v>439.3</v>
       </c>
       <c r="F45">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B46">
-        <v>215443</v>
+        <v>100000</v>
       </c>
       <c r="C46">
         <v>10</v>
       </c>
       <c r="D46">
-        <v>144.30000000000001</v>
+        <v>121.5</v>
       </c>
       <c r="E46">
-        <v>1493.6</v>
+        <v>823.4</v>
       </c>
       <c r="F46">
-        <v>0.57999999999999996</v>
+        <v>0.3</v>
       </c>
       <c r="G46">
-        <v>5.89</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47">
-        <v>464158</v>
+        <v>215443</v>
       </c>
       <c r="C47">
         <v>10</v>
       </c>
       <c r="D47">
-        <v>169.6</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="E47">
-        <v>2748.3</v>
+        <v>1493.6</v>
       </c>
       <c r="F47">
-        <v>3.96</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G47">
-        <v>54.12</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48">
-        <v>1000000</v>
+        <v>464158</v>
       </c>
       <c r="C48">
         <v>10</v>
       </c>
       <c r="D48">
-        <v>189.1</v>
+        <v>169.6</v>
       </c>
       <c r="E48">
-        <v>5287.4</v>
+        <v>2748.3</v>
       </c>
       <c r="F48">
-        <v>0.28999999999999998</v>
+        <v>3.96</v>
       </c>
       <c r="G48">
-        <v>8.23</v>
+        <v>54.12</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>1000000</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>189.1</v>
+      </c>
+      <c r="E49">
+        <v>5287.4</v>
+      </c>
+      <c r="F49">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G49">
+        <v>8.23</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51">
-        <v>2154</v>
-      </c>
-      <c r="C51">
-        <v>10</v>
-      </c>
-      <c r="D51">
-        <v>83.1</v>
-      </c>
-      <c r="E51">
-        <v>25.9</v>
-      </c>
-      <c r="F51">
-        <v>0.18</v>
-      </c>
-      <c r="G51">
-        <v>0.06</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B52">
-        <v>4641</v>
+        <v>2154</v>
       </c>
       <c r="C52">
         <v>10</v>
       </c>
       <c r="D52">
-        <v>87</v>
+        <v>83.1</v>
       </c>
       <c r="E52">
-        <v>53.4</v>
+        <v>25.9</v>
       </c>
       <c r="F52">
-        <v>0.81</v>
+        <v>0.18</v>
       </c>
       <c r="G52">
-        <v>0.47</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B53">
-        <v>10000</v>
+        <v>4641</v>
       </c>
       <c r="C53">
         <v>10</v>
       </c>
       <c r="D53">
-        <v>89.7</v>
+        <v>87</v>
       </c>
       <c r="E53">
-        <v>111.5</v>
+        <v>53.4</v>
       </c>
       <c r="F53">
-        <v>0.28000000000000003</v>
+        <v>0.81</v>
       </c>
       <c r="G53">
-        <v>0.34</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B54">
-        <v>21544</v>
+        <v>10000</v>
       </c>
       <c r="C54">
         <v>10</v>
       </c>
       <c r="D54">
-        <v>93.6</v>
+        <v>89.7</v>
       </c>
       <c r="E54">
-        <v>230.2</v>
+        <v>111.5</v>
       </c>
       <c r="F54">
-        <v>0.31</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G54">
-        <v>0.76</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B55">
-        <v>46415</v>
+        <v>21544</v>
       </c>
       <c r="C55">
         <v>10</v>
       </c>
       <c r="D55">
-        <v>99.7</v>
+        <v>93.6</v>
       </c>
       <c r="E55">
-        <v>465.7</v>
+        <v>230.2</v>
       </c>
       <c r="F55">
         <v>0.31</v>
       </c>
       <c r="G55">
-        <v>1.46</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B56">
-        <v>100000</v>
+        <v>46415</v>
       </c>
       <c r="C56">
         <v>10</v>
       </c>
       <c r="D56">
-        <v>120</v>
+        <v>99.7</v>
       </c>
       <c r="E56">
-        <v>833</v>
+        <v>465.7</v>
       </c>
       <c r="F56">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="G56">
-        <v>2.0099999999999998</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57">
-        <v>215443</v>
+        <v>100000</v>
       </c>
       <c r="C57">
         <v>10</v>
       </c>
       <c r="D57">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="E57">
-        <v>1476.1</v>
+        <v>833</v>
       </c>
       <c r="F57">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G57">
-        <v>1.45</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58">
-        <v>464158</v>
+        <v>215443</v>
       </c>
       <c r="C58">
         <v>10</v>
       </c>
       <c r="D58">
-        <v>170.2</v>
+        <v>146</v>
       </c>
       <c r="E58">
-        <v>2726.5</v>
+        <v>1476.1</v>
       </c>
       <c r="F58">
-        <v>0.42</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G58">
-        <v>6.71</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59">
-        <v>1000000</v>
+        <v>464158</v>
       </c>
       <c r="C59">
         <v>10</v>
       </c>
       <c r="D59">
-        <v>193.3</v>
+        <v>170.2</v>
       </c>
       <c r="E59">
-        <v>5173.2</v>
+        <v>2726.5</v>
       </c>
       <c r="F59">
-        <v>0.19</v>
+        <v>0.42</v>
       </c>
       <c r="G59">
-        <v>5.14</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>81</v>
+      </c>
+      <c r="B60">
+        <v>1000000</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>193.3</v>
+      </c>
+      <c r="E60">
+        <v>5173.2</v>
+      </c>
+      <c r="F60">
+        <v>0.19</v>
+      </c>
+      <c r="G60">
+        <v>5.14</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62">
-        <v>2154</v>
-      </c>
-      <c r="C62">
-        <v>10</v>
-      </c>
-      <c r="D62">
-        <v>222.9</v>
-      </c>
-      <c r="E62">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="F62">
-        <v>0.71</v>
-      </c>
-      <c r="G62">
-        <v>0.03</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63">
-        <v>4641</v>
+        <v>2154</v>
       </c>
       <c r="C63">
         <v>10</v>
       </c>
       <c r="D63">
-        <v>232.8</v>
+        <v>222.9</v>
       </c>
       <c r="E63">
-        <v>19.899999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F63">
-        <v>0.41</v>
+        <v>0.71</v>
       </c>
       <c r="G63">
         <v>0.03</v>
@@ -9650,455 +9637,478 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64">
-        <v>10000</v>
+        <v>4641</v>
       </c>
       <c r="C64">
         <v>10</v>
       </c>
       <c r="D64">
-        <v>241.8</v>
+        <v>232.8</v>
       </c>
       <c r="E64">
-        <v>41.3</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F64">
-        <v>0.51</v>
+        <v>0.41</v>
       </c>
       <c r="G64">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B65">
-        <v>21544</v>
+        <v>10000</v>
       </c>
       <c r="C65">
         <v>10</v>
       </c>
       <c r="D65">
-        <v>262.60000000000002</v>
+        <v>241.8</v>
       </c>
       <c r="E65">
-        <v>82.8</v>
+        <v>41.3</v>
       </c>
       <c r="F65">
-        <v>9.44</v>
+        <v>0.51</v>
       </c>
       <c r="G65">
-        <v>2.31</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66">
-        <v>46415</v>
+        <v>21544</v>
       </c>
       <c r="C66">
         <v>10</v>
       </c>
       <c r="D66">
-        <v>306.89999999999998</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="E66">
-        <v>151.19999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="F66">
-        <v>0.4</v>
+        <v>9.44</v>
       </c>
       <c r="G66">
-        <v>0.2</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67">
-        <v>100000</v>
+        <v>46415</v>
       </c>
       <c r="C67">
         <v>10</v>
       </c>
       <c r="D67">
-        <v>365.3</v>
+        <v>306.89999999999998</v>
       </c>
       <c r="E67">
-        <v>273.7</v>
+        <v>151.19999999999999</v>
       </c>
       <c r="F67">
-        <v>0.49</v>
+        <v>0.4</v>
       </c>
       <c r="G67">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B68">
-        <v>215443</v>
+        <v>100000</v>
       </c>
       <c r="C68">
         <v>10</v>
       </c>
       <c r="D68">
-        <v>406.5</v>
+        <v>365.3</v>
       </c>
       <c r="E68">
-        <v>530</v>
+        <v>273.7</v>
       </c>
       <c r="F68">
-        <v>0.19</v>
+        <v>0.49</v>
       </c>
       <c r="G68">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B69">
-        <v>464158</v>
+        <v>215443</v>
       </c>
       <c r="C69">
         <v>10</v>
       </c>
       <c r="D69">
-        <v>435.1</v>
+        <v>406.5</v>
       </c>
       <c r="E69">
-        <v>1066.9000000000001</v>
+        <v>530</v>
       </c>
       <c r="F69">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="G69">
-        <v>0.52</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B70">
-        <v>1000000</v>
+        <v>464158</v>
       </c>
       <c r="C70">
         <v>10</v>
       </c>
       <c r="D70">
-        <v>467.8</v>
+        <v>435.1</v>
       </c>
       <c r="E70">
-        <v>2142.6999999999998</v>
+        <v>1066.9000000000001</v>
       </c>
       <c r="F70">
-        <v>8.0399999999999991</v>
+        <v>0.21</v>
       </c>
       <c r="G70">
-        <v>32.380000000000003</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>1000000</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>467.8</v>
+      </c>
+      <c r="E71">
+        <v>2142.6999999999998</v>
+      </c>
+      <c r="F71">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="G71">
+        <v>32.380000000000003</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>42</v>
-      </c>
-      <c r="B73">
-        <v>2154</v>
-      </c>
-      <c r="C73">
-        <v>10</v>
-      </c>
-      <c r="D73">
-        <v>230.3</v>
-      </c>
-      <c r="E73">
-        <v>9.4</v>
-      </c>
-      <c r="F73">
-        <v>2.1</v>
-      </c>
-      <c r="G73">
-        <v>0.08</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B74">
-        <v>4641</v>
+        <v>2154</v>
       </c>
       <c r="C74">
         <v>10</v>
       </c>
       <c r="D74">
-        <v>239.7</v>
+        <v>230.3</v>
       </c>
       <c r="E74">
-        <v>19.399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="F74">
-        <v>0.86</v>
+        <v>2.1</v>
       </c>
       <c r="G74">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B75">
-        <v>10000</v>
+        <v>4641</v>
       </c>
       <c r="C75">
         <v>10</v>
       </c>
       <c r="D75">
-        <v>246.3</v>
+        <v>239.7</v>
       </c>
       <c r="E75">
-        <v>40.6</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="F75">
-        <v>0.27</v>
+        <v>0.86</v>
       </c>
       <c r="G75">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B76">
-        <v>21544</v>
+        <v>10000</v>
       </c>
       <c r="C76">
         <v>10</v>
       </c>
       <c r="D76">
-        <v>260.3</v>
+        <v>246.3</v>
       </c>
       <c r="E76">
-        <v>82.8</v>
+        <v>40.6</v>
       </c>
       <c r="F76">
-        <v>0.85</v>
+        <v>0.27</v>
       </c>
       <c r="G76">
-        <v>0.27</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B77">
-        <v>46415</v>
+        <v>21544</v>
       </c>
       <c r="C77">
         <v>10</v>
       </c>
       <c r="D77">
-        <v>310.2</v>
+        <v>260.3</v>
       </c>
       <c r="E77">
-        <v>149.6</v>
+        <v>82.8</v>
       </c>
       <c r="F77">
-        <v>0.37</v>
+        <v>0.85</v>
       </c>
       <c r="G77">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B78">
-        <v>100000</v>
+        <v>46415</v>
       </c>
       <c r="C78">
         <v>10</v>
       </c>
       <c r="D78">
-        <v>365</v>
+        <v>310.2</v>
       </c>
       <c r="E78">
-        <v>274</v>
+        <v>149.6</v>
       </c>
       <c r="F78">
-        <v>0.64</v>
+        <v>0.37</v>
       </c>
       <c r="G78">
-        <v>0.48</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B79">
-        <v>215443</v>
+        <v>100000</v>
       </c>
       <c r="C79">
         <v>10</v>
       </c>
       <c r="D79">
-        <v>404.9</v>
+        <v>365</v>
       </c>
       <c r="E79">
-        <v>532.1</v>
+        <v>274</v>
       </c>
       <c r="F79">
-        <v>0.33</v>
+        <v>0.64</v>
       </c>
       <c r="G79">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B80">
-        <v>464158</v>
+        <v>215443</v>
       </c>
       <c r="C80">
         <v>10</v>
       </c>
       <c r="D80">
-        <v>434.4</v>
+        <v>404.9</v>
       </c>
       <c r="E80">
-        <v>1068.5999999999999</v>
+        <v>532.1</v>
       </c>
       <c r="F80">
-        <v>0.66</v>
+        <v>0.33</v>
       </c>
       <c r="G80">
-        <v>1.62</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B81">
-        <v>1000000</v>
+        <v>464158</v>
       </c>
       <c r="C81">
         <v>10</v>
       </c>
       <c r="D81">
-        <v>462.4</v>
+        <v>434.4</v>
       </c>
       <c r="E81">
-        <v>2163.4</v>
+        <v>1068.5999999999999</v>
       </c>
       <c r="F81">
-        <v>3.36</v>
+        <v>0.66</v>
       </c>
       <c r="G81">
-        <v>14.88</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="B82">
+        <v>1000000</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>462.4</v>
+      </c>
+      <c r="E82">
+        <v>2163.4</v>
+      </c>
+      <c r="F82">
+        <v>3.36</v>
+      </c>
+      <c r="G82">
+        <v>14.88</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>11</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -10119,19 +10129,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -10304,55 +10314,55 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>26</v>
       </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
       <c r="G16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>2154</v>
@@ -10375,7 +10385,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>4641</v>
@@ -10398,7 +10408,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <v>10000</v>
@@ -10421,7 +10431,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>21544</v>
@@ -10444,7 +10454,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>46415</v>
@@ -10467,7 +10477,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>100000</v>
@@ -10490,7 +10500,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>215443</v>
@@ -10513,7 +10523,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>464158</v>
@@ -10536,7 +10546,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>1000000</v>
@@ -10559,17 +10569,17 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>2154</v>
@@ -10592,7 +10602,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>4641</v>
@@ -10615,7 +10625,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>10000</v>
@@ -10638,7 +10648,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>21544</v>
@@ -10661,7 +10671,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>46415</v>
@@ -10684,7 +10694,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>100000</v>
@@ -10707,7 +10717,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>215443</v>
@@ -10730,7 +10740,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>464158</v>
@@ -10753,7 +10763,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>1000000</v>
@@ -10776,17 +10786,17 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40">
         <v>2154</v>
@@ -10809,7 +10819,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41">
         <v>4641</v>
@@ -10832,7 +10842,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42">
         <v>10000</v>
@@ -10855,7 +10865,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <v>21544</v>
@@ -10878,7 +10888,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44">
         <v>46415</v>
@@ -10901,7 +10911,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B45">
         <v>100000</v>
@@ -10924,7 +10934,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B46">
         <v>215443</v>
@@ -10947,7 +10957,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47">
         <v>464158</v>
@@ -10970,7 +10980,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48">
         <v>1000000</v>
@@ -10993,17 +11003,17 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B51">
         <v>2154</v>
@@ -11026,7 +11036,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B52">
         <v>4641</v>
@@ -11049,7 +11059,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B53">
         <v>10000</v>
@@ -11072,7 +11082,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B54">
         <v>21544</v>
@@ -11095,7 +11105,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B55">
         <v>46415</v>
@@ -11118,7 +11128,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B56">
         <v>100000</v>
@@ -11141,7 +11151,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57">
         <v>215443</v>
@@ -11164,7 +11174,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58">
         <v>464158</v>
@@ -11187,7 +11197,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>1000000</v>
@@ -11210,17 +11220,17 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62">
         <v>2154</v>
@@ -11243,7 +11253,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63">
         <v>4641</v>
@@ -11266,7 +11276,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64">
         <v>10000</v>
@@ -11289,7 +11299,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B65">
         <v>21544</v>
@@ -11312,7 +11322,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66">
         <v>46415</v>
@@ -11335,7 +11345,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67">
         <v>100000</v>
@@ -11358,7 +11368,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B68">
         <v>215443</v>
@@ -11381,7 +11391,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B69">
         <v>464158</v>
@@ -11404,7 +11414,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B70">
         <v>1000000</v>
@@ -11427,17 +11437,17 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B73">
         <v>2154</v>
@@ -11460,7 +11470,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B74">
         <v>4641</v>
@@ -11483,7 +11493,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B75">
         <v>10000</v>
@@ -11506,7 +11516,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B76">
         <v>21544</v>
@@ -11529,7 +11539,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B77">
         <v>46415</v>
@@ -11552,7 +11562,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B78">
         <v>100000</v>
@@ -11575,7 +11585,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B79">
         <v>215443</v>
@@ -11598,7 +11608,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B80">
         <v>464158</v>
@@ -11621,7 +11631,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B81">
         <v>1000000</v>
@@ -11644,77 +11654,77 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -11735,10 +11745,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -11756,7 +11766,7 @@
         <v>timeIntLink (len 1 factor 10)</v>
       </c>
       <c r="I1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -11929,55 +11939,55 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>26</v>
       </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
       <c r="G16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>2154</v>
@@ -12000,7 +12010,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>4641</v>
@@ -12023,7 +12033,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <v>10000</v>
@@ -12046,7 +12056,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>21544</v>
@@ -12069,7 +12079,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>46415</v>
@@ -12092,7 +12102,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>100000</v>
@@ -12115,7 +12125,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>215443</v>
@@ -12138,7 +12148,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>464158</v>
@@ -12161,7 +12171,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>1000000</v>
@@ -12184,17 +12194,17 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>2154</v>
@@ -12217,7 +12227,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>4641</v>
@@ -12240,7 +12250,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>10000</v>
@@ -12263,7 +12273,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>21544</v>
@@ -12286,7 +12296,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>46415</v>
@@ -12309,7 +12319,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>100000</v>
@@ -12332,7 +12342,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>215443</v>
@@ -12355,7 +12365,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>464158</v>
@@ -12378,7 +12388,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>1000000</v>
@@ -12401,17 +12411,17 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40">
         <v>2154</v>
@@ -12434,7 +12444,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41">
         <v>4641</v>
@@ -12457,7 +12467,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42">
         <v>10000</v>
@@ -12480,7 +12490,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <v>21544</v>
@@ -12503,7 +12513,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44">
         <v>46415</v>
@@ -12526,7 +12536,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B45">
         <v>100000</v>
@@ -12549,7 +12559,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B46">
         <v>215443</v>
@@ -12572,7 +12582,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47">
         <v>464158</v>
@@ -12595,7 +12605,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48">
         <v>1000000</v>
@@ -12618,17 +12628,17 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B51">
         <v>2154</v>
@@ -12651,7 +12661,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B52">
         <v>4641</v>
@@ -12674,7 +12684,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B53">
         <v>10000</v>
@@ -12697,7 +12707,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B54">
         <v>21544</v>
@@ -12720,7 +12730,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B55">
         <v>46415</v>
@@ -12743,7 +12753,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B56">
         <v>100000</v>
@@ -12766,7 +12776,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57">
         <v>215443</v>
@@ -12789,7 +12799,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58">
         <v>464158</v>
@@ -12812,7 +12822,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>1000000</v>
@@ -12835,17 +12845,17 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62">
         <v>2154</v>
@@ -12868,7 +12878,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63">
         <v>4641</v>
@@ -12891,7 +12901,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64">
         <v>10000</v>
@@ -12914,7 +12924,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B65">
         <v>21544</v>
@@ -12937,7 +12947,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66">
         <v>46415</v>
@@ -12960,7 +12970,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67">
         <v>100000</v>
@@ -12983,7 +12993,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B68">
         <v>215443</v>
@@ -13006,7 +13016,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B69">
         <v>464158</v>
@@ -13029,7 +13039,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B70">
         <v>1000000</v>
@@ -13052,17 +13062,17 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B73">
         <v>2154</v>
@@ -13085,7 +13095,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B74">
         <v>4641</v>
@@ -13108,7 +13118,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B75">
         <v>10000</v>
@@ -13131,7 +13141,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B76">
         <v>21544</v>
@@ -13154,7 +13164,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B77">
         <v>46415</v>
@@ -13177,7 +13187,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B78">
         <v>100000</v>
@@ -13200,7 +13210,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B79">
         <v>215443</v>
@@ -13223,7 +13233,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B80">
         <v>464158</v>
@@ -13246,7 +13256,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B81">
         <v>1000000</v>
@@ -13269,77 +13279,77 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -13363,58 +13373,58 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1000000</v>
@@ -13437,17 +13447,17 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>1000000</v>
@@ -13470,17 +13480,17 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1000000</v>
@@ -13503,17 +13513,17 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>1000000</v>
@@ -13536,17 +13546,17 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>1000000</v>
@@ -13569,17 +13579,17 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>1000000</v>
@@ -13602,77 +13612,77 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -13695,58 +13705,58 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1000000</v>
@@ -13769,17 +13779,17 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>1000000</v>
@@ -13802,17 +13812,17 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1000000</v>
@@ -13835,17 +13845,17 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>1000000</v>
@@ -13868,17 +13878,17 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>1000000</v>
@@ -13901,17 +13911,17 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>1000000</v>
@@ -13934,77 +13944,77 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -14027,58 +14037,58 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1000000</v>
@@ -14101,17 +14111,17 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>1000000</v>
@@ -14134,17 +14144,17 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1000000</v>
@@ -14167,17 +14177,17 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>1000000</v>
@@ -14200,17 +14210,17 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>1000000</v>
@@ -14233,17 +14243,17 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>1000000</v>
@@ -14266,77 +14276,77 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -14356,55 +14366,55 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1000000</v>
@@ -14427,17 +14437,17 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>1000000</v>
@@ -14460,17 +14470,17 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1000000</v>
@@ -14493,17 +14503,17 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17">
         <v>1000000</v>
@@ -14526,17 +14536,17 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>1000000</v>
@@ -14559,17 +14569,17 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>1000000</v>
@@ -14592,77 +14602,77 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/discussion/testQuery.xlsx
+++ b/discussion/testQuery.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S50Q1000" sheetId="8" r:id="rId1"/>
-    <sheet name="S50Q1" sheetId="10" r:id="rId2"/>
-    <sheet name="S1Q1000" sheetId="15" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="12" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="13" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="14" r:id="rId7"/>
+    <sheet name="S50Q1000 (2)" sheetId="16" r:id="rId2"/>
+    <sheet name="S50Q1" sheetId="10" r:id="rId3"/>
+    <sheet name="S1Q1000" sheetId="15" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="109">
   <si>
     <t>N</t>
   </si>
@@ -346,6 +347,12 @@
   </si>
   <si>
     <t>(len 50 factor 10)</t>
+  </si>
+  <si>
+    <t>16 Aug 2019 02:46:50 GMT</t>
+  </si>
+  <si>
+    <t>After final optimization</t>
   </si>
 </sst>
 </file>
@@ -2213,6 +2220,1295 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>100,000-query (width 1000)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> time/ms vs. log N</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'S50Q1000 (2)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>timeIntNC(len 50 factor 10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (2)'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.3332456989619628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6666115684190301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3333263404034543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6666583547893312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3333323879079773</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6666658401408645</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (2)'!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>166.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>296.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>331.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>376.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9C3-4553-98D7-8856A9191B6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'S50Q1000 (2)'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>timeNCList (len 50, factor 10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (2)'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.3332456989619628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6666115684190301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3333263404034543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6666583547893312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3333323879079773</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6666658401408645</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (2)'!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>237.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>278.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>336.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>374.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>422.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>463.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>480.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A9C3-4553-98D7-8856A9191B6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'S50Q1000 (2)'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>timeIntLink (len 50, factor 10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (2)'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.3332456989619628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6666115684190301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3333263404034543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6666583547893312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3333323879079773</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6666658401408645</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (2)'!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>108.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>109.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>165.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>196.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>243.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A9C3-4553-98D7-8856A9191B6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="422657936"/>
+        <c:axId val="422653016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="422657936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422653016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="422653016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422657936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>100,000-query</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (width 1000) time/ms vs. N</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'S50Q1000 (2)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>timeIntNC(len 50 factor 10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (2)'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21544</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>215443</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>464158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (2)'!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>166.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>296.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>331.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>376.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4CA2-4BF9-9DBA-7101AE23443E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'S50Q1000 (2)'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>timeNCList (len 50, factor 10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (2)'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21544</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>215443</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>464158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (2)'!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>237.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>278.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>336.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>374.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>422.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>463.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>480.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4CA2-4BF9-9DBA-7101AE23443E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'S50Q1000 (2)'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>timeIntLink (len 50, factor 10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (2)'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21544</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>215443</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>464158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (2)'!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>108.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>109.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>165.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>196.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>243.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4CA2-4BF9-9DBA-7101AE23443E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="422657936"/>
+        <c:axId val="422653016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="422657936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422653016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="422653016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422657936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>100,000-query (width 1)</a:t>
             </a:r>
             <a:r>
@@ -2802,7 +4098,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3425,7 +4721,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4049,7 +5345,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4912,6 +6208,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7493,6 +8869,1038 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8079,6 +10487,75 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>60325</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -8144,7 +10621,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8478,8 +10955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H10"/>
+    <sheetView topLeftCell="A3" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8516,11 +10993,11 @@
         <v>2154</v>
       </c>
       <c r="F2">
-        <f>D19</f>
+        <f t="shared" ref="F2:F8" si="0">D19</f>
         <v>160.4</v>
       </c>
       <c r="G2">
-        <f>D63</f>
+        <f t="shared" ref="G2:G8" si="1">D63</f>
         <v>222.9</v>
       </c>
       <c r="H2">
@@ -8530,22 +11007,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">LOG10(E3)</f>
+        <f t="shared" ref="D3:D6" si="2">LOG10(E3)</f>
         <v>3.6666115684190301</v>
       </c>
       <c r="E3">
         <v>4641</v>
       </c>
       <c r="F3">
-        <f>D20</f>
+        <f t="shared" si="0"/>
         <v>165.1</v>
       </c>
       <c r="G3">
-        <f>D64</f>
+        <f t="shared" si="1"/>
         <v>232.8</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H10" si="1">D42</f>
+        <f t="shared" ref="H3:H10" si="3">D42</f>
         <v>90.6</v>
       </c>
     </row>
@@ -8558,141 +11035,141 @@
         <v>10000</v>
       </c>
       <c r="F4">
-        <f>D21</f>
+        <f t="shared" si="0"/>
         <v>173.5</v>
       </c>
       <c r="G4">
-        <f>D65</f>
+        <f t="shared" si="1"/>
         <v>241.8</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>95.4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.3333263404034543</v>
       </c>
       <c r="E5">
         <v>21544</v>
       </c>
       <c r="F5">
-        <f>D22</f>
+        <f t="shared" si="0"/>
         <v>183.9</v>
       </c>
       <c r="G5">
-        <f>D66</f>
+        <f t="shared" si="1"/>
         <v>262.60000000000002</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>99.4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.6666583547893312</v>
       </c>
       <c r="E6">
         <v>46415</v>
       </c>
       <c r="F6">
-        <f>D23</f>
+        <f t="shared" si="0"/>
         <v>201.2</v>
       </c>
       <c r="G6">
-        <f>D67</f>
+        <f t="shared" si="1"/>
         <v>306.89999999999998</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>105.7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D7">
-        <f t="shared" ref="D7:D9" si="2">LOG10(E7)</f>
+        <f t="shared" ref="D7:D9" si="4">LOG10(E7)</f>
         <v>5</v>
       </c>
       <c r="E7">
         <v>100000</v>
       </c>
       <c r="F7">
-        <f>D24</f>
+        <f t="shared" si="0"/>
         <v>244.8</v>
       </c>
       <c r="G7">
-        <f>D68</f>
+        <f t="shared" si="1"/>
         <v>365.3</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>121.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.3333323879079773</v>
       </c>
       <c r="E8">
         <v>215443</v>
       </c>
       <c r="F8">
-        <f>D25</f>
+        <f t="shared" si="0"/>
         <v>289.7</v>
       </c>
       <c r="G8">
-        <f>D69</f>
+        <f t="shared" si="1"/>
         <v>406.5</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>144.30000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.6666658401408645</v>
       </c>
       <c r="E9">
         <v>464158</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F10" si="3">D26</f>
+        <f t="shared" ref="F9:F10" si="5">D26</f>
         <v>327.3</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G10" si="4">D70</f>
+        <f t="shared" ref="G9:G10" si="6">D70</f>
         <v>435.1</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>169.6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D10">
-        <f t="shared" ref="D10" si="5">LOG10(E10)</f>
+        <f t="shared" ref="D10" si="7">LOG10(E10)</f>
         <v>6</v>
       </c>
       <c r="E10">
         <v>1000000</v>
       </c>
       <c r="F10">
+        <f t="shared" si="5"/>
+        <v>363.7</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="6"/>
+        <v>467.8</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="3"/>
-        <v>363.7</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="4"/>
-        <v>467.8</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
         <v>189.1</v>
       </c>
     </row>
@@ -10118,6 +12595,1339 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <f>LOG10(E2)</f>
+        <v>3.3332456989619628</v>
+      </c>
+      <c r="E2">
+        <v>2154</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F10" si="0">D19</f>
+        <v>166.7</v>
+      </c>
+      <c r="G2">
+        <f>D41</f>
+        <v>237.7</v>
+      </c>
+      <c r="H2">
+        <f>D30</f>
+        <v>108.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="1">LOG10(E3)</f>
+        <v>3.6666115684190301</v>
+      </c>
+      <c r="E3">
+        <v>4641</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>166.6</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G10" si="2">D42</f>
+        <v>252</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H10" si="3">D31</f>
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4">
+        <f>LOG10(E4)</f>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>10000</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>181.2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>251</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>4.3333263404034543</v>
+      </c>
+      <c r="E5">
+        <v>21544</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>185.2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>278.7</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>4.6666583547893312</v>
+      </c>
+      <c r="E6">
+        <v>46415</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>198.4</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>336.8</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>109.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>100000</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>374.7</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>136.69999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>5.3333323879079773</v>
+      </c>
+      <c r="E8">
+        <v>215443</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>296.60000000000002</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>422.1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>165.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>5.6666658401408645</v>
+      </c>
+      <c r="E9">
+        <v>464158</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>331.9</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>463.7</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>196.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>1000000</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>376.6</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>480.5</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>243.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>2154</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>166.7</v>
+      </c>
+      <c r="E19">
+        <v>601.79999999999995</v>
+      </c>
+      <c r="F19">
+        <v>3.29</v>
+      </c>
+      <c r="G19">
+        <v>11.64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>4641</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>166.6</v>
+      </c>
+      <c r="E20">
+        <v>600.5</v>
+      </c>
+      <c r="F20">
+        <v>1.46</v>
+      </c>
+      <c r="G20">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>10000</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>181.2</v>
+      </c>
+      <c r="E21">
+        <v>553.20000000000005</v>
+      </c>
+      <c r="F21">
+        <v>3.02</v>
+      </c>
+      <c r="G21">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>21544</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>185.2</v>
+      </c>
+      <c r="E22">
+        <v>541.4</v>
+      </c>
+      <c r="F22">
+        <v>3.5</v>
+      </c>
+      <c r="G22">
+        <v>9.2200000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>46415</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>198.4</v>
+      </c>
+      <c r="E23">
+        <v>504.2</v>
+      </c>
+      <c r="F23">
+        <v>0.95</v>
+      </c>
+      <c r="G23">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>100000</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>254</v>
+      </c>
+      <c r="E24">
+        <v>396.3</v>
+      </c>
+      <c r="F24">
+        <v>7.34</v>
+      </c>
+      <c r="G24">
+        <v>10.119999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>215443</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>296.60000000000002</v>
+      </c>
+      <c r="E25">
+        <v>338.2</v>
+      </c>
+      <c r="F25">
+        <v>5.8</v>
+      </c>
+      <c r="G25">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>464158</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>331.9</v>
+      </c>
+      <c r="E26">
+        <v>301.39999999999998</v>
+      </c>
+      <c r="F26">
+        <v>2.52</v>
+      </c>
+      <c r="G26">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>1000000</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>376.6</v>
+      </c>
+      <c r="E27">
+        <v>266.2</v>
+      </c>
+      <c r="F27">
+        <v>6.6</v>
+      </c>
+      <c r="G27">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>2154</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>108.3</v>
+      </c>
+      <c r="E30">
+        <v>929.5</v>
+      </c>
+      <c r="F30">
+        <v>3.16</v>
+      </c>
+      <c r="G30">
+        <v>24.14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>4641</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>90.8</v>
+      </c>
+      <c r="E31">
+        <v>1102</v>
+      </c>
+      <c r="F31">
+        <v>0.27</v>
+      </c>
+      <c r="G31">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>10000</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>98</v>
+      </c>
+      <c r="E32">
+        <v>1022.3</v>
+      </c>
+      <c r="F32">
+        <v>1.35</v>
+      </c>
+      <c r="G32">
+        <v>12.89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>21544</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>103</v>
+      </c>
+      <c r="E33">
+        <v>971</v>
+      </c>
+      <c r="F33">
+        <v>0.39</v>
+      </c>
+      <c r="G33">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>46415</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>109.4</v>
+      </c>
+      <c r="E34">
+        <v>914.4</v>
+      </c>
+      <c r="F34">
+        <v>0.45</v>
+      </c>
+      <c r="G34">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>100000</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="E35">
+        <v>739.8</v>
+      </c>
+      <c r="F35">
+        <v>5.09</v>
+      </c>
+      <c r="G35">
+        <v>24.09</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>215443</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>165.7</v>
+      </c>
+      <c r="E36">
+        <v>605.9</v>
+      </c>
+      <c r="F36">
+        <v>3.68</v>
+      </c>
+      <c r="G36">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <v>464158</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>196.8</v>
+      </c>
+      <c r="E37">
+        <v>509.6</v>
+      </c>
+      <c r="F37">
+        <v>3.86</v>
+      </c>
+      <c r="G37">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>1000000</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>243.6</v>
+      </c>
+      <c r="E38">
+        <v>414.4</v>
+      </c>
+      <c r="F38">
+        <v>8.23</v>
+      </c>
+      <c r="G38">
+        <v>12.49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>2154</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>237.7</v>
+      </c>
+      <c r="E41">
+        <v>421.1</v>
+      </c>
+      <c r="F41">
+        <v>2.08</v>
+      </c>
+      <c r="G41">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>4641</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>252</v>
+      </c>
+      <c r="E42">
+        <v>398.2</v>
+      </c>
+      <c r="F42">
+        <v>5.13</v>
+      </c>
+      <c r="G42">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>10000</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>251</v>
+      </c>
+      <c r="E43">
+        <v>399.7</v>
+      </c>
+      <c r="F43">
+        <v>4.82</v>
+      </c>
+      <c r="G43">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>21544</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>278.7</v>
+      </c>
+      <c r="E44">
+        <v>360.2</v>
+      </c>
+      <c r="F44">
+        <v>5.92</v>
+      </c>
+      <c r="G44">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>46415</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>336.8</v>
+      </c>
+      <c r="E45">
+        <v>297.39999999999998</v>
+      </c>
+      <c r="F45">
+        <v>4.57</v>
+      </c>
+      <c r="G45">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>100000</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>374.7</v>
+      </c>
+      <c r="E46">
+        <v>267</v>
+      </c>
+      <c r="F46">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G46">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>215443</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>422.1</v>
+      </c>
+      <c r="E47">
+        <v>237.3</v>
+      </c>
+      <c r="F47">
+        <v>6.09</v>
+      </c>
+      <c r="G47">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>464158</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>463.7</v>
+      </c>
+      <c r="E48">
+        <v>216.2</v>
+      </c>
+      <c r="F48">
+        <v>8.26</v>
+      </c>
+      <c r="G48">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>1000000</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>480.5</v>
+      </c>
+      <c r="E49">
+        <v>208.6</v>
+      </c>
+      <c r="F49">
+        <v>8.27</v>
+      </c>
+      <c r="G49">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>464158</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>435.1</v>
+      </c>
+      <c r="E70">
+        <v>1066.9000000000001</v>
+      </c>
+      <c r="F70">
+        <v>0.21</v>
+      </c>
+      <c r="G70">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>1000000</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>467.8</v>
+      </c>
+      <c r="E71">
+        <v>2142.6999999999998</v>
+      </c>
+      <c r="F71">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="G71">
+        <v>32.380000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74">
+        <v>2154</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>230.3</v>
+      </c>
+      <c r="E74">
+        <v>9.4</v>
+      </c>
+      <c r="F74">
+        <v>2.1</v>
+      </c>
+      <c r="G74">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75">
+        <v>4641</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>239.7</v>
+      </c>
+      <c r="E75">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F75">
+        <v>0.86</v>
+      </c>
+      <c r="G75">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76">
+        <v>10000</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>246.3</v>
+      </c>
+      <c r="E76">
+        <v>40.6</v>
+      </c>
+      <c r="F76">
+        <v>0.27</v>
+      </c>
+      <c r="G76">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77">
+        <v>21544</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>260.3</v>
+      </c>
+      <c r="E77">
+        <v>82.8</v>
+      </c>
+      <c r="F77">
+        <v>0.85</v>
+      </c>
+      <c r="G77">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78">
+        <v>46415</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>310.2</v>
+      </c>
+      <c r="E78">
+        <v>149.6</v>
+      </c>
+      <c r="F78">
+        <v>0.37</v>
+      </c>
+      <c r="G78">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79">
+        <v>100000</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>365</v>
+      </c>
+      <c r="E79">
+        <v>274</v>
+      </c>
+      <c r="F79">
+        <v>0.64</v>
+      </c>
+      <c r="G79">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80">
+        <v>215443</v>
+      </c>
+      <c r="C80">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>404.9</v>
+      </c>
+      <c r="E80">
+        <v>532.1</v>
+      </c>
+      <c r="F80">
+        <v>0.33</v>
+      </c>
+      <c r="G80">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81">
+        <v>464158</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>434.4</v>
+      </c>
+      <c r="E81">
+        <v>1068.5999999999999</v>
+      </c>
+      <c r="F81">
+        <v>0.66</v>
+      </c>
+      <c r="G81">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82">
+        <v>1000000</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>462.4</v>
+      </c>
+      <c r="E82">
+        <v>2163.4</v>
+      </c>
+      <c r="F82">
+        <v>3.36</v>
+      </c>
+      <c r="G82">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
@@ -11733,7 +15543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I100"/>
   <sheetViews>
@@ -13358,7 +17168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
@@ -13690,7 +17500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
@@ -14022,7 +17832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
@@ -14354,7 +18164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>

--- a/discussion/testQuery.xlsx
+++ b/discussion/testQuery.xlsx
@@ -9,24 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="S50Q1000" sheetId="8" r:id="rId1"/>
     <sheet name="S50Q1000 (2)" sheetId="16" r:id="rId2"/>
-    <sheet name="S50Q1" sheetId="10" r:id="rId3"/>
-    <sheet name="S1Q1000" sheetId="15" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="12" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="13" r:id="rId7"/>
-    <sheet name="Sheet4" sheetId="14" r:id="rId8"/>
+    <sheet name="S50Q1000 (3)" sheetId="17" r:id="rId3"/>
+    <sheet name="S50Q1" sheetId="10" r:id="rId4"/>
+    <sheet name="S1Q1000" sheetId="15" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="147">
   <si>
     <t>N</t>
   </si>
@@ -353,6 +354,120 @@
   </si>
   <si>
     <t>After final optimization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntStoreNCList query </t>
+  </si>
+  <si>
+    <t># dimensions depth:7 width:866747]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntStoreNCList0 query </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntStoreLink query </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntStoreLink0 query </t>
+  </si>
+  <si>
+    <t># dimensions depth:126 width:416364]</t>
+  </si>
+  <si>
+    <t># Query NCList0-Java store interval size 50 store sequence factor 10 query width -1000 query count 100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCList0-Java query </t>
+  </si>
+  <si>
+    <t># dimensions depth:7 width:528974]</t>
+  </si>
+  <si>
+    <t># Query NCList-Java store interval size 50 store sequence factor 10 query width -1000 query count 100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCList-Java query </t>
+  </si>
+  <si>
+    <t># Query Naive store interval size 50 store sequence factor 10 query width -1000 query count 100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naive query </t>
+  </si>
+  <si>
+    <t># dimensions depth:1 width:2154]</t>
+  </si>
+  <si>
+    <t># Query2 IntStoreNCList store interval size 50 store sequence factor 10 query width -1000 query count 100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntStoreNCList query2 </t>
+  </si>
+  <si>
+    <t># dimensions depth:8 width:528975]</t>
+  </si>
+  <si>
+    <t># Query2 IntStoreNCList0 store interval size 50 store sequence factor 10 query width -1000 query count 100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntStoreNCList0 query2 </t>
+  </si>
+  <si>
+    <t># Query2 IntStoreLink store interval size 50 store sequence factor 10 query width -1000 query count 100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntStoreLink query2 </t>
+  </si>
+  <si>
+    <t># Query2 IntStoreLink0 store interval size 50 store sequence factor 10 query width -1000 query count 100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntStoreLink0 query2 </t>
+  </si>
+  <si>
+    <t># dimensions depth:127 width:999999]</t>
+  </si>
+  <si>
+    <t># Query2 NCList0-Java store interval size 50 store sequence factor 10 query width -1000 query count 100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCList0-Java query2 </t>
+  </si>
+  <si>
+    <t># dimensions depth:8 width:1]</t>
+  </si>
+  <si>
+    <t># Query2 NCList-Java store interval size 50 store sequence factor 10 query width -1000 query count 100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCList-Java query2 </t>
+  </si>
+  <si>
+    <t># Query2 Naive store interval size 50 store sequence factor 10 query width -1000 query count 100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naive query2 </t>
+  </si>
+  <si>
+    <t># dimensions depth:1 width:2155]</t>
+  </si>
+  <si>
+    <t>timeInstStoreNCList(len 50 factor 10)</t>
+  </si>
+  <si>
+    <t>timeIntStoreNCList0 (len 50, factor 10)</t>
+  </si>
+  <si>
+    <t>timeInstStoreNCArray(len 50 factor 10)</t>
+  </si>
+  <si>
+    <t>timeIntStoreLink (len 50, factor 10)</t>
+  </si>
+  <si>
+    <t>timeNCList(len 50 factor 10)</t>
+  </si>
+  <si>
+    <t>timeNCList0(len 50 factor 10)</t>
   </si>
 </sst>
 </file>
@@ -940,7 +1055,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1344,6 +1458,630 @@
           <c:orientation val="minMax"/>
           <c:max val="6"/>
           <c:min val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422653016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="422653016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422657936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>100,000-query</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (width 1000) time/ms vs. N</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>S1Q1000!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>timeIntNC (len 1 factor 10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>S1Q1000!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21544</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>215443</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>464158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>S1Q1000!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>102.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>149.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>171.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-475B-427E-A73F-B6B081DDE5DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>S1Q1000!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>timeNCList (len 1 factor 10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>S1Q1000!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21544</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>215443</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>464158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>S1Q1000!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>118.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>203.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>243.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-475B-427E-A73F-B6B081DDE5DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>S1Q1000!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>timeIntLink (len 1 factor 10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>S1Q1000!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21544</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>215443</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>464158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>S1Q1000!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-475B-427E-A73F-B6B081DDE5DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="422657936"/>
+        <c:axId val="422653016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="422657936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1585,7 +2323,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2118,7 +2855,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3509,7 +4245,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>100,000-query (width 1)</a:t>
+              <a:t>100,000-query (width 1000)</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -3518,6 +4254,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3558,11 +4295,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>S50Q1!$F$1</c:f>
+              <c:f>'S50Q1000 (3)'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>timeIntNC(len 50 factor 10)</c:v>
+                  <c:v>timeInstStoreNCList(len 50 factor 10)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3593,10 +4330,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>S50Q1!$D$2:$D$9</c:f>
+              <c:f>'S50Q1000 (3)'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3.3332456989619628</c:v>
                 </c:pt>
@@ -3620,39 +4357,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.6666658401408645</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>S50Q1!$F$2:$F$9</c:f>
+              <c:f>'S50Q1000 (3)'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>35.4</c:v>
+                  <c:v>140.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.700000000000003</c:v>
+                  <c:v>152.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.6</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.7</c:v>
+                  <c:v>172.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.1</c:v>
+                  <c:v>192.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.900000000000006</c:v>
+                  <c:v>239.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109</c:v>
+                  <c:v>287.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>139</c:v>
+                  <c:v>324.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3660,7 +4403,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-584B-4711-83AF-03BFB493F220}"/>
+              <c16:uniqueId val="{00000000-A196-448F-9CBD-2E34FF069050}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3669,11 +4412,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>S50Q1!$G$1</c:f>
+              <c:f>'S50Q1000 (3)'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>timeNCList (len 50, factor 10)</c:v>
+                  <c:v>timeInstStoreNCArray(len 50 factor 10)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3704,10 +4447,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>S50Q1!$D$2:$D$9</c:f>
+              <c:f>'S50Q1000 (3)'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3.3332456989619628</c:v>
                 </c:pt>
@@ -3731,39 +4474,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.6666658401408645</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>S50Q1!$G$2:$G$9</c:f>
+              <c:f>'S50Q1000 (3)'!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>27.5</c:v>
+                  <c:v>118.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.8</c:v>
+                  <c:v>123.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.6</c:v>
+                  <c:v>132.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.799999999999997</c:v>
+                  <c:v>146.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.8</c:v>
+                  <c:v>163.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68.599999999999994</c:v>
+                  <c:v>199.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.7</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>107.5</c:v>
+                  <c:v>268.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>310</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3771,7 +4520,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-584B-4711-83AF-03BFB493F220}"/>
+              <c16:uniqueId val="{00000001-A196-448F-9CBD-2E34FF069050}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3780,11 +4529,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>S50Q1!$H$1</c:f>
+              <c:f>'S50Q1000 (3)'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>timeIntLink (len 50, factor 10)</c:v>
+                  <c:v>timeIntStoreNCList0 (len 50, factor 10)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3815,10 +4564,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>S50Q1!$D$2:$D$9</c:f>
+              <c:f>'S50Q1000 (3)'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3.3332456989619628</c:v>
                 </c:pt>
@@ -3842,39 +4591,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.6666658401408645</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>S50Q1!$H$2:$H$9</c:f>
+              <c:f>'S50Q1000 (3)'!$H$2:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>176.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.5</c:v>
+                  <c:v>185.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.4</c:v>
+                  <c:v>194.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.8</c:v>
+                  <c:v>203.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>222.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.8</c:v>
+                  <c:v>284.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58</c:v>
+                  <c:v>321.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76.3</c:v>
+                  <c:v>366.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>401.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3882,7 +4637,358 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-584B-4711-83AF-03BFB493F220}"/>
+              <c16:uniqueId val="{00000002-A196-448F-9CBD-2E34FF069050}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'S50Q1000 (3)'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>timeIntStoreLink (len 50, factor 10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (3)'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.3332456989619628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6666115684190301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3333263404034543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6666583547893312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3333323879079773</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6666658401408645</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (3)'!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>199.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>233.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A196-448F-9CBD-2E34FF069050}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'S50Q1000 (3)'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>timeNCList(len 50 factor 10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (3)'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.3332456989619628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6666115684190301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3333263404034543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6666583547893312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3333323879079773</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6666658401408645</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (3)'!$J$2:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>219.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>231.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>260.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>308.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>363.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>427.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>453.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A196-448F-9CBD-2E34FF069050}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'S50Q1000 (3)'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>timeNCList0(len 50 factor 10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (3)'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.3332456989619628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6666115684190301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3333263404034543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6666583547893312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3333323879079773</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6666658401408645</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (3)'!$K$2:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>227.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>249.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>251.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>374.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>412.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>487.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>467.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A196-448F-9CBD-2E34FF069050}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3901,6 +5007,7 @@
         <c:axId val="422657936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6"/>
           <c:min val="3"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4032,6 +5139,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4137,11 +5245,12 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (width 1) time/ms vs. N</a:t>
+              <a:t> (width 1000) time/ms vs. N</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4182,11 +5291,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>S50Q1!$F$1</c:f>
+              <c:f>'S50Q1000 (3)'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>timeIntNC(len 50 factor 10)</c:v>
+                  <c:v>timeInstStoreNCList(len 50 factor 10)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4217,10 +5326,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>S50Q1!$E$2:$E$9</c:f>
+              <c:f>'S50Q1000 (3)'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2154</c:v>
                 </c:pt>
@@ -4244,39 +5353,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>464158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>S50Q1!$F$2:$F$9</c:f>
+              <c:f>'S50Q1000 (3)'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>35.4</c:v>
+                  <c:v>140.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.700000000000003</c:v>
+                  <c:v>152.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.6</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.7</c:v>
+                  <c:v>172.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.1</c:v>
+                  <c:v>192.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.900000000000006</c:v>
+                  <c:v>239.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109</c:v>
+                  <c:v>287.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>139</c:v>
+                  <c:v>324.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4284,7 +5399,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7BE7-4F11-AA98-E7584002C9D8}"/>
+              <c16:uniqueId val="{00000000-AE3C-44D9-9C4A-7BA954C1495D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4293,11 +5408,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>S50Q1!$G$1</c:f>
+              <c:f>'S50Q1000 (3)'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>timeNCList (len 50, factor 10)</c:v>
+                  <c:v>timeInstStoreNCArray(len 50 factor 10)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4328,10 +5443,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>S50Q1!$E$2:$E$9</c:f>
+              <c:f>'S50Q1000 (3)'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2154</c:v>
                 </c:pt>
@@ -4355,39 +5470,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>464158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>S50Q1!$G$2:$G$9</c:f>
+              <c:f>'S50Q1000 (3)'!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>27.5</c:v>
+                  <c:v>118.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.8</c:v>
+                  <c:v>123.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.6</c:v>
+                  <c:v>132.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.799999999999997</c:v>
+                  <c:v>146.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.8</c:v>
+                  <c:v>163.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68.599999999999994</c:v>
+                  <c:v>199.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.7</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>107.5</c:v>
+                  <c:v>268.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>310</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4395,7 +5516,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7BE7-4F11-AA98-E7584002C9D8}"/>
+              <c16:uniqueId val="{00000001-AE3C-44D9-9C4A-7BA954C1495D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4404,11 +5525,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>S50Q1!$H$1</c:f>
+              <c:f>'S50Q1000 (3)'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>timeIntLink (len 50, factor 10)</c:v>
+                  <c:v>timeIntStoreNCList0 (len 50, factor 10)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4439,10 +5560,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>S50Q1!$E$2:$E$9</c:f>
+              <c:f>'S50Q1000 (3)'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2154</c:v>
                 </c:pt>
@@ -4466,39 +5587,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>464158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>S50Q1!$H$2:$H$9</c:f>
+              <c:f>'S50Q1000 (3)'!$H$2:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>176.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.5</c:v>
+                  <c:v>185.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.4</c:v>
+                  <c:v>194.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.8</c:v>
+                  <c:v>203.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>222.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.8</c:v>
+                  <c:v>284.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58</c:v>
+                  <c:v>321.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76.3</c:v>
+                  <c:v>366.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>401.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4506,7 +5633,358 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7BE7-4F11-AA98-E7584002C9D8}"/>
+              <c16:uniqueId val="{00000002-AE3C-44D9-9C4A-7BA954C1495D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'S50Q1000 (3)'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>timeIntStoreLink (len 50, factor 10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (3)'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21544</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>215443</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>464158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (3)'!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>199.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>233.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AE3C-44D9-9C4A-7BA954C1495D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'S50Q1000 (3)'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>timeNCList(len 50 factor 10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (3)'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21544</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>215443</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>464158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (3)'!$J$2:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>219.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>231.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>260.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>308.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>363.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>427.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>453.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AE3C-44D9-9C4A-7BA954C1495D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'S50Q1000 (3)'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>timeNCList0(len 50 factor 10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (3)'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21544</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>215443</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>464158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'S50Q1000 (3)'!$K$2:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>227.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>249.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>251.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>374.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>412.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>487.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>467.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AE3C-44D9-9C4A-7BA954C1495D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4525,6 +6003,7 @@
         <c:axId val="422657936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4655,6 +6134,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4756,7 +6236,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>100,000-query (width 1000)</a:t>
+              <a:t>100,000-query (width 1)</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -4805,11 +6285,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>S1Q1000!$F$1</c:f>
+              <c:f>S50Q1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>timeIntNC (len 1 factor 10)</c:v>
+                  <c:v>timeIntNC(len 50 factor 10)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4840,7 +6320,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>S1Q1000!$D$2:$D$9</c:f>
+              <c:f>S50Q1!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4873,33 +6353,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>S1Q1000!$F$2:$F$9</c:f>
+              <c:f>S50Q1!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>102.6</c:v>
+                  <c:v>35.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101</c:v>
+                  <c:v>36.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.1</c:v>
+                  <c:v>42.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116.3</c:v>
+                  <c:v>50.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>113.3</c:v>
+                  <c:v>60.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>127.3</c:v>
+                  <c:v>80.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>149.19999999999999</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>171.2</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4907,7 +6387,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-02DB-4279-892A-4C7F68EEDDB3}"/>
+              <c16:uniqueId val="{00000000-584B-4711-83AF-03BFB493F220}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4916,11 +6396,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>S1Q1000!$G$1</c:f>
+              <c:f>S50Q1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>timeNCList (len 1 factor 10)</c:v>
+                  <c:v>timeNCList (len 50, factor 10)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4951,7 +6431,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>S1Q1000!$D$2:$D$9</c:f>
+              <c:f>S50Q1!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4984,33 +6464,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>S1Q1000!$G$2:$G$9</c:f>
+              <c:f>S50Q1!$G$2:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>106.4</c:v>
+                  <c:v>30.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>111.9</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118.6</c:v>
+                  <c:v>40.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>131.9</c:v>
+                  <c:v>51.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170.4</c:v>
+                  <c:v>68.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>203.8</c:v>
+                  <c:v>90.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>243.6</c:v>
+                  <c:v>107.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5018,7 +6498,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-02DB-4279-892A-4C7F68EEDDB3}"/>
+              <c16:uniqueId val="{00000001-584B-4711-83AF-03BFB493F220}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5027,11 +6507,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>S1Q1000!$H$1</c:f>
+              <c:f>S50Q1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>timeIntLink (len 1 factor 10)</c:v>
+                  <c:v>timeIntLink (len 50, factor 10)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5062,7 +6542,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>S1Q1000!$D$2:$D$9</c:f>
+              <c:f>S50Q1!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5095,33 +6575,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>S1Q1000!$H$2:$H$9</c:f>
+              <c:f>S50Q1!$H$2:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>57.8</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.6</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.4</c:v>
+                  <c:v>26.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.400000000000006</c:v>
+                  <c:v>29.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.599999999999994</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.4</c:v>
+                  <c:v>42.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105.6</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>125.8</c:v>
+                  <c:v>76.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5129,7 +6609,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-02DB-4279-892A-4C7F68EEDDB3}"/>
+              <c16:uniqueId val="{00000002-584B-4711-83AF-03BFB493F220}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5384,7 +6864,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (width 1000) time/ms vs. N</a:t>
+              <a:t> (width 1) time/ms vs. N</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5429,11 +6909,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>S1Q1000!$F$1</c:f>
+              <c:f>S50Q1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>timeIntNC (len 1 factor 10)</c:v>
+                  <c:v>timeIntNC(len 50 factor 10)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5464,7 +6944,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>S1Q1000!$E$2:$E$9</c:f>
+              <c:f>S50Q1!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5497,33 +6977,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>S1Q1000!$F$2:$F$9</c:f>
+              <c:f>S50Q1!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>102.6</c:v>
+                  <c:v>35.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101</c:v>
+                  <c:v>36.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.1</c:v>
+                  <c:v>42.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116.3</c:v>
+                  <c:v>50.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>113.3</c:v>
+                  <c:v>60.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>127.3</c:v>
+                  <c:v>80.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>149.19999999999999</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>171.2</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5531,7 +7011,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-475B-427E-A73F-B6B081DDE5DC}"/>
+              <c16:uniqueId val="{00000000-7BE7-4F11-AA98-E7584002C9D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5540,11 +7020,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>S1Q1000!$G$1</c:f>
+              <c:f>S50Q1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>timeNCList (len 1 factor 10)</c:v>
+                  <c:v>timeNCList (len 50, factor 10)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5575,7 +7055,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>S1Q1000!$E$2:$E$9</c:f>
+              <c:f>S50Q1!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5608,33 +7088,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>S1Q1000!$G$2:$G$9</c:f>
+              <c:f>S50Q1!$G$2:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>106.4</c:v>
+                  <c:v>30.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>111.9</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118.6</c:v>
+                  <c:v>40.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>131.9</c:v>
+                  <c:v>51.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170.4</c:v>
+                  <c:v>68.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>203.8</c:v>
+                  <c:v>90.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>243.6</c:v>
+                  <c:v>107.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5642,7 +7122,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-475B-427E-A73F-B6B081DDE5DC}"/>
+              <c16:uniqueId val="{00000001-7BE7-4F11-AA98-E7584002C9D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5651,11 +7131,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>S1Q1000!$H$1</c:f>
+              <c:f>S50Q1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>timeIntLink (len 1 factor 10)</c:v>
+                  <c:v>timeIntLink (len 50, factor 10)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5686,7 +7166,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>S1Q1000!$E$2:$E$9</c:f>
+              <c:f>S50Q1!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5719,33 +7199,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>S1Q1000!$H$2:$H$9</c:f>
+              <c:f>S50Q1!$H$2:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>57.8</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.6</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.4</c:v>
+                  <c:v>26.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.400000000000006</c:v>
+                  <c:v>29.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.599999999999994</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.4</c:v>
+                  <c:v>42.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105.6</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>125.8</c:v>
+                  <c:v>76.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5753,7 +7233,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-475B-427E-A73F-B6B081DDE5DC}"/>
+              <c16:uniqueId val="{00000002-7BE7-4F11-AA98-E7584002C9D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5968,7 +7448,673 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>100,000-query (width 1000)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> time/ms vs. log N</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>S1Q1000!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>timeIntNC (len 1 factor 10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>S1Q1000!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.3332456989619628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6666115684190301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3333263404034543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6666583547893312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3333323879079773</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6666658401408645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>S1Q1000!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>102.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>149.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>171.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-02DB-4279-892A-4C7F68EEDDB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>S1Q1000!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>timeNCList (len 1 factor 10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>S1Q1000!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.3332456989619628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6666115684190301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3333263404034543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6666583547893312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3333323879079773</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6666658401408645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>S1Q1000!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>118.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>203.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>243.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-02DB-4279-892A-4C7F68EEDDB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>S1Q1000!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>timeIntLink (len 1 factor 10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>S1Q1000!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.3332456989619628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6666115684190301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3333263404034543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6666583547893312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3333323879079773</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6666658401408645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>S1Q1000!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-02DB-4279-892A-4C7F68EEDDB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="422657936"/>
+        <c:axId val="422653016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="422657936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422653016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="422653016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422657936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6288,6 +8434,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6804,7 +8990,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7320,7 +9506,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7836,7 +10022,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8352,7 +10538,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8868,7 +11054,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9384,7 +11570,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9900,7 +12086,1039 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10556,6 +13774,75 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>382367</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>501617</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>325284</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>436989</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>60325</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -10621,7 +13908,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12598,7 +15885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -13928,6 +17215,3412 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K182"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <f>LOG10(E2)</f>
+        <v>3.3332456989619628</v>
+      </c>
+      <c r="E2">
+        <v>2154</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F10" si="0">D19</f>
+        <v>140.19999999999999</v>
+      </c>
+      <c r="G2">
+        <f>D41</f>
+        <v>118.3</v>
+      </c>
+      <c r="H2">
+        <f>D30</f>
+        <v>176.7</v>
+      </c>
+      <c r="I2">
+        <f>D52</f>
+        <v>89.5</v>
+      </c>
+      <c r="J2">
+        <f>D74</f>
+        <v>219.1</v>
+      </c>
+      <c r="K2">
+        <f>D63</f>
+        <v>227.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="1">LOG10(E3)</f>
+        <v>3.6666115684190301</v>
+      </c>
+      <c r="E3">
+        <v>4641</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>152.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G10" si="2">D42</f>
+        <v>123.9</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H10" si="3">D31</f>
+        <v>185.4</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I10" si="4">D53</f>
+        <v>92.5</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J10" si="5">D75</f>
+        <v>231.2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K10" si="6">D64</f>
+        <v>249.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4">
+        <f>LOG10(E4)</f>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>10000</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>132.6</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>194.6</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>98.1</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>240.3</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="6"/>
+        <v>251.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>4.3333263404034543</v>
+      </c>
+      <c r="E5">
+        <v>21544</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>172.6</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>146.5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>203.5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>104.4</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>260.89999999999998</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>262.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>4.6666583547893312</v>
+      </c>
+      <c r="E6">
+        <v>46415</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>192.3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>163.1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>222.8</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>308.39999999999998</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>100000</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>239.5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>199.4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>284.3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>130.4</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>363.4</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>374.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>5.3333323879079773</v>
+      </c>
+      <c r="E8">
+        <v>215443</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>287.7</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>231</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>321.60000000000002</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>165</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>400.7</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>412.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>5.6666658401408645</v>
+      </c>
+      <c r="E9">
+        <v>464158</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>324.3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>268.5</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>366.1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>199.2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>427.6</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>487.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>1000000</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>357.3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>401.5</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>233.7</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>453.6</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>467.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19">
+        <v>2154</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="E19">
+        <v>713.6</v>
+      </c>
+      <c r="F19">
+        <v>0.93</v>
+      </c>
+      <c r="G19">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20">
+        <v>4641</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>152.5</v>
+      </c>
+      <c r="E20">
+        <v>655.7</v>
+      </c>
+      <c r="F20">
+        <v>0.65</v>
+      </c>
+      <c r="G20">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21">
+        <v>10000</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>161</v>
+      </c>
+      <c r="E21">
+        <v>621.1</v>
+      </c>
+      <c r="F21">
+        <v>0.48</v>
+      </c>
+      <c r="G21">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22">
+        <v>21544</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>172.6</v>
+      </c>
+      <c r="E22">
+        <v>579.29999999999995</v>
+      </c>
+      <c r="F22">
+        <v>0.53</v>
+      </c>
+      <c r="G22">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23">
+        <v>46415</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>192.3</v>
+      </c>
+      <c r="E23">
+        <v>520.20000000000005</v>
+      </c>
+      <c r="F23">
+        <v>0.74</v>
+      </c>
+      <c r="G23">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24">
+        <v>100000</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>239.5</v>
+      </c>
+      <c r="E24">
+        <v>417.6</v>
+      </c>
+      <c r="F24">
+        <v>1.01</v>
+      </c>
+      <c r="G24">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25">
+        <v>215443</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>287.7</v>
+      </c>
+      <c r="E25">
+        <v>348.2</v>
+      </c>
+      <c r="F25">
+        <v>4.12</v>
+      </c>
+      <c r="G25">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26">
+        <v>464158</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>324.3</v>
+      </c>
+      <c r="E26">
+        <v>308.7</v>
+      </c>
+      <c r="F26">
+        <v>3.65</v>
+      </c>
+      <c r="G26">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27">
+        <v>1000000</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>357.3</v>
+      </c>
+      <c r="E27">
+        <v>280.8</v>
+      </c>
+      <c r="F27">
+        <v>7.06</v>
+      </c>
+      <c r="G27">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30">
+        <v>2154</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>176.7</v>
+      </c>
+      <c r="E30">
+        <v>565.9</v>
+      </c>
+      <c r="F30">
+        <v>0.79</v>
+      </c>
+      <c r="G30">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31">
+        <v>4641</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>185.4</v>
+      </c>
+      <c r="E31">
+        <v>539.4</v>
+      </c>
+      <c r="F31">
+        <v>0.41</v>
+      </c>
+      <c r="G31">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32">
+        <v>10000</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>194.6</v>
+      </c>
+      <c r="E32">
+        <v>514</v>
+      </c>
+      <c r="F32">
+        <v>0.64</v>
+      </c>
+      <c r="G32">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33">
+        <v>21544</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>203.5</v>
+      </c>
+      <c r="E33">
+        <v>491.5</v>
+      </c>
+      <c r="F33">
+        <v>0.42</v>
+      </c>
+      <c r="G33">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34">
+        <v>46415</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>222.8</v>
+      </c>
+      <c r="E34">
+        <v>448.8</v>
+      </c>
+      <c r="F34">
+        <v>0.7</v>
+      </c>
+      <c r="G34">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35">
+        <v>100000</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>284.3</v>
+      </c>
+      <c r="E35">
+        <v>353.2</v>
+      </c>
+      <c r="F35">
+        <v>6.18</v>
+      </c>
+      <c r="G35">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36">
+        <v>215443</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>321.60000000000002</v>
+      </c>
+      <c r="E36">
+        <v>311</v>
+      </c>
+      <c r="F36">
+        <v>1.37</v>
+      </c>
+      <c r="G36">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37">
+        <v>464158</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>366.1</v>
+      </c>
+      <c r="E37">
+        <v>273.39999999999998</v>
+      </c>
+      <c r="F37">
+        <v>3.33</v>
+      </c>
+      <c r="G37">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38">
+        <v>1000000</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>401.5</v>
+      </c>
+      <c r="E38">
+        <v>249.1</v>
+      </c>
+      <c r="F38">
+        <v>1.44</v>
+      </c>
+      <c r="G38">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41">
+        <v>2154</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>118.3</v>
+      </c>
+      <c r="E41">
+        <v>845.9</v>
+      </c>
+      <c r="F41">
+        <v>0.66</v>
+      </c>
+      <c r="G41">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42">
+        <v>4641</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>123.9</v>
+      </c>
+      <c r="E42">
+        <v>807.4</v>
+      </c>
+      <c r="F42">
+        <v>0.39</v>
+      </c>
+      <c r="G42">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43">
+        <v>10000</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>132.6</v>
+      </c>
+      <c r="E43">
+        <v>754.1</v>
+      </c>
+      <c r="F43">
+        <v>0.54</v>
+      </c>
+      <c r="G43">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44">
+        <v>21544</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>146.5</v>
+      </c>
+      <c r="E44">
+        <v>685.5</v>
+      </c>
+      <c r="F44">
+        <v>3.35</v>
+      </c>
+      <c r="G44">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45">
+        <v>46415</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>163.1</v>
+      </c>
+      <c r="E45">
+        <v>615.5</v>
+      </c>
+      <c r="F45">
+        <v>3.7</v>
+      </c>
+      <c r="G45">
+        <v>12.39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46">
+        <v>100000</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>199.4</v>
+      </c>
+      <c r="E46">
+        <v>511.1</v>
+      </c>
+      <c r="F46">
+        <v>10.84</v>
+      </c>
+      <c r="G46">
+        <v>19.54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47">
+        <v>215443</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>231</v>
+      </c>
+      <c r="E47">
+        <v>433.1</v>
+      </c>
+      <c r="F47">
+        <v>1.34</v>
+      </c>
+      <c r="G47">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48">
+        <v>464158</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>268.5</v>
+      </c>
+      <c r="E48">
+        <v>372.5</v>
+      </c>
+      <c r="F48">
+        <v>1.21</v>
+      </c>
+      <c r="G48">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49">
+        <v>1000000</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>310</v>
+      </c>
+      <c r="E49">
+        <v>322.8</v>
+      </c>
+      <c r="F49">
+        <v>2.52</v>
+      </c>
+      <c r="G49">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52">
+        <v>2154</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>89.5</v>
+      </c>
+      <c r="E52">
+        <v>1119.2</v>
+      </c>
+      <c r="F52">
+        <v>1.39</v>
+      </c>
+      <c r="G52">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53">
+        <v>4641</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>92.5</v>
+      </c>
+      <c r="E53">
+        <v>1081</v>
+      </c>
+      <c r="F53">
+        <v>0.4</v>
+      </c>
+      <c r="G53">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54">
+        <v>10000</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>98.1</v>
+      </c>
+      <c r="E54">
+        <v>1019.4</v>
+      </c>
+      <c r="F54">
+        <v>0.3</v>
+      </c>
+      <c r="G54">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55">
+        <v>21544</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>104.4</v>
+      </c>
+      <c r="E55">
+        <v>957.9</v>
+      </c>
+      <c r="F55">
+        <v>0.54</v>
+      </c>
+      <c r="G55">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56">
+        <v>46415</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>111</v>
+      </c>
+      <c r="E56">
+        <v>900.9</v>
+      </c>
+      <c r="F56">
+        <v>0.3</v>
+      </c>
+      <c r="G56">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57">
+        <v>100000</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>130.4</v>
+      </c>
+      <c r="E57">
+        <v>766.7</v>
+      </c>
+      <c r="F57">
+        <v>0.47</v>
+      </c>
+      <c r="G57">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58">
+        <v>215443</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>165</v>
+      </c>
+      <c r="E58">
+        <v>606.1</v>
+      </c>
+      <c r="F58">
+        <v>0.66</v>
+      </c>
+      <c r="G58">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59">
+        <v>464158</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>199.2</v>
+      </c>
+      <c r="E59">
+        <v>502.2</v>
+      </c>
+      <c r="F59">
+        <v>1.07</v>
+      </c>
+      <c r="G59">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60">
+        <v>1000000</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>233.7</v>
+      </c>
+      <c r="E60">
+        <v>428</v>
+      </c>
+      <c r="F60">
+        <v>0.81</v>
+      </c>
+      <c r="G60">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63">
+        <v>2154</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>227.7</v>
+      </c>
+      <c r="E63">
+        <v>439.2</v>
+      </c>
+      <c r="F63">
+        <v>1.02</v>
+      </c>
+      <c r="G63">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64">
+        <v>4641</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>249.4</v>
+      </c>
+      <c r="E64">
+        <v>402.6</v>
+      </c>
+      <c r="F64">
+        <v>5.68</v>
+      </c>
+      <c r="G64">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65">
+        <v>10000</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>251.7</v>
+      </c>
+      <c r="E65">
+        <v>397.5</v>
+      </c>
+      <c r="F65">
+        <v>1.96</v>
+      </c>
+      <c r="G65">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66">
+        <v>21544</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>262.8</v>
+      </c>
+      <c r="E66">
+        <v>380.5</v>
+      </c>
+      <c r="F66">
+        <v>0.97</v>
+      </c>
+      <c r="G66">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67">
+        <v>46415</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>318</v>
+      </c>
+      <c r="E67">
+        <v>314.5</v>
+      </c>
+      <c r="F67">
+        <v>1.41</v>
+      </c>
+      <c r="G67">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68">
+        <v>100000</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>374.1</v>
+      </c>
+      <c r="E68">
+        <v>267.3</v>
+      </c>
+      <c r="F68">
+        <v>1.57</v>
+      </c>
+      <c r="G68">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69">
+        <v>215443</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>412.1</v>
+      </c>
+      <c r="E69">
+        <v>242.7</v>
+      </c>
+      <c r="F69">
+        <v>1.94</v>
+      </c>
+      <c r="G69">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70">
+        <v>464158</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>487.4</v>
+      </c>
+      <c r="E70">
+        <v>205.7</v>
+      </c>
+      <c r="F70">
+        <v>8.1</v>
+      </c>
+      <c r="G70">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71">
+        <v>1000000</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>467.3</v>
+      </c>
+      <c r="E71">
+        <v>214</v>
+      </c>
+      <c r="F71">
+        <v>1.58</v>
+      </c>
+      <c r="G71">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74">
+        <v>2154</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>219.1</v>
+      </c>
+      <c r="E74">
+        <v>456.4</v>
+      </c>
+      <c r="F74">
+        <v>0.91</v>
+      </c>
+      <c r="G74">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75">
+        <v>4641</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>231.2</v>
+      </c>
+      <c r="E75">
+        <v>432.5</v>
+      </c>
+      <c r="F75">
+        <v>0.84</v>
+      </c>
+      <c r="G75">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76">
+        <v>10000</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>240.3</v>
+      </c>
+      <c r="E76">
+        <v>416.2</v>
+      </c>
+      <c r="F76">
+        <v>0.7</v>
+      </c>
+      <c r="G76">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77">
+        <v>21544</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>260.89999999999998</v>
+      </c>
+      <c r="E77">
+        <v>384.8</v>
+      </c>
+      <c r="F77">
+        <v>6.02</v>
+      </c>
+      <c r="G77">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78">
+        <v>46415</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>308.39999999999998</v>
+      </c>
+      <c r="E78">
+        <v>324.3</v>
+      </c>
+      <c r="F78">
+        <v>1.29</v>
+      </c>
+      <c r="G78">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79">
+        <v>100000</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>363.4</v>
+      </c>
+      <c r="E79">
+        <v>275.2</v>
+      </c>
+      <c r="F79">
+        <v>1.26</v>
+      </c>
+      <c r="G79">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80">
+        <v>215443</v>
+      </c>
+      <c r="C80">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>400.7</v>
+      </c>
+      <c r="E80">
+        <v>249.6</v>
+      </c>
+      <c r="F80">
+        <v>1.04</v>
+      </c>
+      <c r="G80">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>119</v>
+      </c>
+      <c r="B81">
+        <v>464158</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>427.6</v>
+      </c>
+      <c r="E81">
+        <v>233.9</v>
+      </c>
+      <c r="F81">
+        <v>1.5</v>
+      </c>
+      <c r="G81">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82">
+        <v>1000000</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>453.6</v>
+      </c>
+      <c r="E82">
+        <v>220.5</v>
+      </c>
+      <c r="F82">
+        <v>1.77</v>
+      </c>
+      <c r="G82">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85">
+        <v>2154</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <v>1707.4</v>
+      </c>
+      <c r="E85">
+        <v>58.6</v>
+      </c>
+      <c r="F85">
+        <v>4.01</v>
+      </c>
+      <c r="G85">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86">
+        <v>4641</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88">
+        <v>21544</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89">
+        <v>46415</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91">
+        <v>215443</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92">
+        <v>464158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96">
+        <v>2154</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>261.8</v>
+      </c>
+      <c r="E96">
+        <v>384.2</v>
+      </c>
+      <c r="F96">
+        <v>7.21</v>
+      </c>
+      <c r="G96">
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97">
+        <v>4641</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>259.10000000000002</v>
+      </c>
+      <c r="E97">
+        <v>386.2</v>
+      </c>
+      <c r="F97">
+        <v>2.1</v>
+      </c>
+      <c r="G97">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98">
+        <v>10000</v>
+      </c>
+      <c r="C98">
+        <v>10</v>
+      </c>
+      <c r="D98">
+        <v>265.5</v>
+      </c>
+      <c r="E98">
+        <v>376.7</v>
+      </c>
+      <c r="F98">
+        <v>0.64</v>
+      </c>
+      <c r="G98">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99">
+        <v>21544</v>
+      </c>
+      <c r="C99">
+        <v>10</v>
+      </c>
+      <c r="D99">
+        <v>277.8</v>
+      </c>
+      <c r="E99">
+        <v>360.1</v>
+      </c>
+      <c r="F99">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G99">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100">
+        <v>46415</v>
+      </c>
+      <c r="C100">
+        <v>10</v>
+      </c>
+      <c r="D100">
+        <v>335.1</v>
+      </c>
+      <c r="E100">
+        <v>298.39999999999998</v>
+      </c>
+      <c r="F100">
+        <v>1.22</v>
+      </c>
+      <c r="G100">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>124</v>
+      </c>
+      <c r="B101">
+        <v>100000</v>
+      </c>
+      <c r="C101">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>392.2</v>
+      </c>
+      <c r="E101">
+        <v>255</v>
+      </c>
+      <c r="F101">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G101">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>124</v>
+      </c>
+      <c r="B102">
+        <v>215443</v>
+      </c>
+      <c r="C102">
+        <v>10</v>
+      </c>
+      <c r="D102">
+        <v>427.5</v>
+      </c>
+      <c r="E102">
+        <v>234.1</v>
+      </c>
+      <c r="F102">
+        <v>3.47</v>
+      </c>
+      <c r="G102">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>124</v>
+      </c>
+      <c r="B103">
+        <v>464158</v>
+      </c>
+      <c r="C103">
+        <v>10</v>
+      </c>
+      <c r="D103">
+        <v>451.3</v>
+      </c>
+      <c r="E103">
+        <v>221.6</v>
+      </c>
+      <c r="F103">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G103">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>124</v>
+      </c>
+      <c r="B104">
+        <v>1000000</v>
+      </c>
+      <c r="C104">
+        <v>10</v>
+      </c>
+      <c r="D104">
+        <v>479</v>
+      </c>
+      <c r="E104">
+        <v>208.8</v>
+      </c>
+      <c r="F104">
+        <v>1.78</v>
+      </c>
+      <c r="G104">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>127</v>
+      </c>
+      <c r="B107">
+        <v>2154</v>
+      </c>
+      <c r="C107">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <v>251.4</v>
+      </c>
+      <c r="E107">
+        <v>398</v>
+      </c>
+      <c r="F107">
+        <v>2.08</v>
+      </c>
+      <c r="G107">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>127</v>
+      </c>
+      <c r="B108">
+        <v>4641</v>
+      </c>
+      <c r="C108">
+        <v>10</v>
+      </c>
+      <c r="D108">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E108">
+        <v>384.8</v>
+      </c>
+      <c r="F108">
+        <v>1.01</v>
+      </c>
+      <c r="G108">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109">
+        <v>10000</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+      <c r="D109">
+        <v>269.39999999999998</v>
+      </c>
+      <c r="E109">
+        <v>371.3</v>
+      </c>
+      <c r="F109">
+        <v>1.04</v>
+      </c>
+      <c r="G109">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110">
+        <v>21544</v>
+      </c>
+      <c r="C110">
+        <v>10</v>
+      </c>
+      <c r="D110">
+        <v>286.3</v>
+      </c>
+      <c r="E110">
+        <v>349.3</v>
+      </c>
+      <c r="F110">
+        <v>1.39</v>
+      </c>
+      <c r="G110">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>127</v>
+      </c>
+      <c r="B111">
+        <v>46415</v>
+      </c>
+      <c r="C111">
+        <v>10</v>
+      </c>
+      <c r="D111">
+        <v>352.6</v>
+      </c>
+      <c r="E111">
+        <v>284</v>
+      </c>
+      <c r="F111">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="G111">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>127</v>
+      </c>
+      <c r="B112">
+        <v>100000</v>
+      </c>
+      <c r="C112">
+        <v>10</v>
+      </c>
+      <c r="D112">
+        <v>411.6</v>
+      </c>
+      <c r="E112">
+        <v>243</v>
+      </c>
+      <c r="F112">
+        <v>2.17</v>
+      </c>
+      <c r="G112">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>127</v>
+      </c>
+      <c r="B113">
+        <v>215443</v>
+      </c>
+      <c r="C113">
+        <v>10</v>
+      </c>
+      <c r="D113">
+        <v>458</v>
+      </c>
+      <c r="E113">
+        <v>218.5</v>
+      </c>
+      <c r="F113">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="G113">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114">
+        <v>464158</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+      <c r="D114">
+        <v>478.4</v>
+      </c>
+      <c r="E114">
+        <v>209.1</v>
+      </c>
+      <c r="F114">
+        <v>1.75</v>
+      </c>
+      <c r="G114">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115">
+        <v>1000000</v>
+      </c>
+      <c r="C115">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <v>502.4</v>
+      </c>
+      <c r="E115">
+        <v>199.1</v>
+      </c>
+      <c r="F115">
+        <v>1.95</v>
+      </c>
+      <c r="G115">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118">
+        <v>2154</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <v>190.4</v>
+      </c>
+      <c r="E118">
+        <v>526</v>
+      </c>
+      <c r="F118">
+        <v>2.84</v>
+      </c>
+      <c r="G118">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>129</v>
+      </c>
+      <c r="B119">
+        <v>4641</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <v>200.4</v>
+      </c>
+      <c r="E119">
+        <v>499.1</v>
+      </c>
+      <c r="F119">
+        <v>1.39</v>
+      </c>
+      <c r="G119">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120">
+        <v>10000</v>
+      </c>
+      <c r="C120">
+        <v>10</v>
+      </c>
+      <c r="D120">
+        <v>204.9</v>
+      </c>
+      <c r="E120">
+        <v>488.3</v>
+      </c>
+      <c r="F120">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G120">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121">
+        <v>21544</v>
+      </c>
+      <c r="C121">
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <v>209.3</v>
+      </c>
+      <c r="E121">
+        <v>478.2</v>
+      </c>
+      <c r="F121">
+        <v>1.84</v>
+      </c>
+      <c r="G121">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122">
+        <v>46415</v>
+      </c>
+      <c r="C122">
+        <v>10</v>
+      </c>
+      <c r="D122">
+        <v>216.5</v>
+      </c>
+      <c r="E122">
+        <v>462.2</v>
+      </c>
+      <c r="F122">
+        <v>1.87</v>
+      </c>
+      <c r="G122">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123">
+        <v>100000</v>
+      </c>
+      <c r="C123">
+        <v>10</v>
+      </c>
+      <c r="D123">
+        <v>248.6</v>
+      </c>
+      <c r="E123">
+        <v>406.7</v>
+      </c>
+      <c r="F123">
+        <v>9.69</v>
+      </c>
+      <c r="G123">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124">
+        <v>215443</v>
+      </c>
+      <c r="C124">
+        <v>10</v>
+      </c>
+      <c r="D124">
+        <v>276.10000000000002</v>
+      </c>
+      <c r="E124">
+        <v>362.5</v>
+      </c>
+      <c r="F124">
+        <v>3.07</v>
+      </c>
+      <c r="G124">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125">
+        <v>464158</v>
+      </c>
+      <c r="C125">
+        <v>10</v>
+      </c>
+      <c r="D125">
+        <v>304.10000000000002</v>
+      </c>
+      <c r="E125">
+        <v>329.3</v>
+      </c>
+      <c r="F125">
+        <v>3.85</v>
+      </c>
+      <c r="G125">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126">
+        <v>1000000</v>
+      </c>
+      <c r="C126">
+        <v>10</v>
+      </c>
+      <c r="D126">
+        <v>310.8</v>
+      </c>
+      <c r="E126">
+        <v>321.8</v>
+      </c>
+      <c r="F126">
+        <v>1.59</v>
+      </c>
+      <c r="G126">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129">
+        <v>2154</v>
+      </c>
+      <c r="C129">
+        <v>10</v>
+      </c>
+      <c r="D129">
+        <v>105.5</v>
+      </c>
+      <c r="E129">
+        <v>961</v>
+      </c>
+      <c r="F129">
+        <v>4.47</v>
+      </c>
+      <c r="G129">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130">
+        <v>4641</v>
+      </c>
+      <c r="C130">
+        <v>10</v>
+      </c>
+      <c r="D130">
+        <v>101.4</v>
+      </c>
+      <c r="E130">
+        <v>987.2</v>
+      </c>
+      <c r="F130">
+        <v>0.85</v>
+      </c>
+      <c r="G130">
+        <v>8.2100000000000009</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>10000</v>
+      </c>
+      <c r="C131">
+        <v>10</v>
+      </c>
+      <c r="D131">
+        <v>167.7</v>
+      </c>
+      <c r="E131">
+        <v>616.79999999999995</v>
+      </c>
+      <c r="F131">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G131">
+        <v>41.81</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>21544</v>
+      </c>
+      <c r="C132">
+        <v>10</v>
+      </c>
+      <c r="D132">
+        <v>123.1</v>
+      </c>
+      <c r="E132">
+        <v>815.4</v>
+      </c>
+      <c r="F132">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="G132">
+        <v>16.690000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>46415</v>
+      </c>
+      <c r="C133">
+        <v>10</v>
+      </c>
+      <c r="D133">
+        <v>119.9</v>
+      </c>
+      <c r="E133">
+        <v>834.5</v>
+      </c>
+      <c r="F133">
+        <v>0.62</v>
+      </c>
+      <c r="G133">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>131</v>
+      </c>
+      <c r="B134">
+        <v>100000</v>
+      </c>
+      <c r="C134">
+        <v>10</v>
+      </c>
+      <c r="D134">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="E134">
+        <v>688.6</v>
+      </c>
+      <c r="F134">
+        <v>0.61</v>
+      </c>
+      <c r="G134">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>131</v>
+      </c>
+      <c r="B135">
+        <v>215443</v>
+      </c>
+      <c r="C135">
+        <v>10</v>
+      </c>
+      <c r="D135">
+        <v>178.4</v>
+      </c>
+      <c r="E135">
+        <v>560.70000000000005</v>
+      </c>
+      <c r="F135">
+        <v>0.86</v>
+      </c>
+      <c r="G135">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>131</v>
+      </c>
+      <c r="B136">
+        <v>464158</v>
+      </c>
+      <c r="C136">
+        <v>10</v>
+      </c>
+      <c r="D136">
+        <v>235.8</v>
+      </c>
+      <c r="E136">
+        <v>430.1</v>
+      </c>
+      <c r="F136">
+        <v>9.85</v>
+      </c>
+      <c r="G136">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>131</v>
+      </c>
+      <c r="B137">
+        <v>1000000</v>
+      </c>
+      <c r="C137">
+        <v>10</v>
+      </c>
+      <c r="D137">
+        <v>250</v>
+      </c>
+      <c r="E137">
+        <v>400.4</v>
+      </c>
+      <c r="F137">
+        <v>2.25</v>
+      </c>
+      <c r="G137">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>124</v>
+      </c>
+      <c r="B140">
+        <v>2154</v>
+      </c>
+      <c r="C140">
+        <v>10</v>
+      </c>
+      <c r="D140">
+        <v>248.5</v>
+      </c>
+      <c r="E140">
+        <v>403.2</v>
+      </c>
+      <c r="F140">
+        <v>3.79</v>
+      </c>
+      <c r="G140">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>124</v>
+      </c>
+      <c r="B141">
+        <v>4641</v>
+      </c>
+      <c r="C141">
+        <v>10</v>
+      </c>
+      <c r="D141">
+        <v>265.5</v>
+      </c>
+      <c r="E141">
+        <v>377.3</v>
+      </c>
+      <c r="F141">
+        <v>3.77</v>
+      </c>
+      <c r="G141">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>124</v>
+      </c>
+      <c r="B142">
+        <v>10000</v>
+      </c>
+      <c r="C142">
+        <v>10</v>
+      </c>
+      <c r="D142">
+        <v>269.3</v>
+      </c>
+      <c r="E142">
+        <v>371.7</v>
+      </c>
+      <c r="F142">
+        <v>2.78</v>
+      </c>
+      <c r="G142">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>124</v>
+      </c>
+      <c r="B143">
+        <v>21544</v>
+      </c>
+      <c r="C143">
+        <v>10</v>
+      </c>
+      <c r="D143">
+        <v>273.5</v>
+      </c>
+      <c r="E143">
+        <v>365.7</v>
+      </c>
+      <c r="F143">
+        <v>1.08</v>
+      </c>
+      <c r="G143">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>124</v>
+      </c>
+      <c r="B144">
+        <v>46415</v>
+      </c>
+      <c r="C144">
+        <v>10</v>
+      </c>
+      <c r="D144">
+        <v>331.5</v>
+      </c>
+      <c r="E144">
+        <v>301.7</v>
+      </c>
+      <c r="F144">
+        <v>1.36</v>
+      </c>
+      <c r="G144">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>124</v>
+      </c>
+      <c r="B145">
+        <v>100000</v>
+      </c>
+      <c r="C145">
+        <v>10</v>
+      </c>
+      <c r="D145">
+        <v>386.6</v>
+      </c>
+      <c r="E145">
+        <v>258.7</v>
+      </c>
+      <c r="F145">
+        <v>1.43</v>
+      </c>
+      <c r="G145">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>124</v>
+      </c>
+      <c r="B146">
+        <v>215443</v>
+      </c>
+      <c r="C146">
+        <v>10</v>
+      </c>
+      <c r="D146">
+        <v>443.6</v>
+      </c>
+      <c r="E146">
+        <v>227.5</v>
+      </c>
+      <c r="F146">
+        <v>15.71</v>
+      </c>
+      <c r="G146">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>124</v>
+      </c>
+      <c r="B147">
+        <v>464158</v>
+      </c>
+      <c r="C147">
+        <v>10</v>
+      </c>
+      <c r="D147">
+        <v>459.7</v>
+      </c>
+      <c r="E147">
+        <v>217.7</v>
+      </c>
+      <c r="F147">
+        <v>4.58</v>
+      </c>
+      <c r="G147">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>124</v>
+      </c>
+      <c r="B148">
+        <v>1000000</v>
+      </c>
+      <c r="C148">
+        <v>10</v>
+      </c>
+      <c r="D148">
+        <v>475.1</v>
+      </c>
+      <c r="E148">
+        <v>210.6</v>
+      </c>
+      <c r="F148">
+        <v>3.46</v>
+      </c>
+      <c r="G148">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>134</v>
+      </c>
+      <c r="B151">
+        <v>2154</v>
+      </c>
+      <c r="C151">
+        <v>10</v>
+      </c>
+      <c r="D151">
+        <v>236.4</v>
+      </c>
+      <c r="E151">
+        <v>423.1</v>
+      </c>
+      <c r="F151">
+        <v>0.72</v>
+      </c>
+      <c r="G151">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>134</v>
+      </c>
+      <c r="B152">
+        <v>4641</v>
+      </c>
+      <c r="C152">
+        <v>10</v>
+      </c>
+      <c r="D152">
+        <v>253.4</v>
+      </c>
+      <c r="E152">
+        <v>395</v>
+      </c>
+      <c r="F152">
+        <v>2.42</v>
+      </c>
+      <c r="G152">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>134</v>
+      </c>
+      <c r="B153">
+        <v>10000</v>
+      </c>
+      <c r="C153">
+        <v>10</v>
+      </c>
+      <c r="D153">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E153">
+        <v>384.9</v>
+      </c>
+      <c r="F153">
+        <v>1.91</v>
+      </c>
+      <c r="G153">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>134</v>
+      </c>
+      <c r="B154">
+        <v>21544</v>
+      </c>
+      <c r="C154">
+        <v>10</v>
+      </c>
+      <c r="D154">
+        <v>273.7</v>
+      </c>
+      <c r="E154">
+        <v>365.4</v>
+      </c>
+      <c r="F154">
+        <v>1.4</v>
+      </c>
+      <c r="G154">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>134</v>
+      </c>
+      <c r="B155">
+        <v>46415</v>
+      </c>
+      <c r="C155">
+        <v>10</v>
+      </c>
+      <c r="D155">
+        <v>347.5</v>
+      </c>
+      <c r="E155">
+        <v>290.2</v>
+      </c>
+      <c r="F155">
+        <v>11.62</v>
+      </c>
+      <c r="G155">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>134</v>
+      </c>
+      <c r="B156">
+        <v>100000</v>
+      </c>
+      <c r="C156">
+        <v>10</v>
+      </c>
+      <c r="D156">
+        <v>394.4</v>
+      </c>
+      <c r="E156">
+        <v>253.6</v>
+      </c>
+      <c r="F156">
+        <v>1.2</v>
+      </c>
+      <c r="G156">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>134</v>
+      </c>
+      <c r="B157">
+        <v>215443</v>
+      </c>
+      <c r="C157">
+        <v>10</v>
+      </c>
+      <c r="D157">
+        <v>435.9</v>
+      </c>
+      <c r="E157">
+        <v>229.5</v>
+      </c>
+      <c r="F157">
+        <v>1.54</v>
+      </c>
+      <c r="G157">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>134</v>
+      </c>
+      <c r="B158">
+        <v>464158</v>
+      </c>
+      <c r="C158">
+        <v>10</v>
+      </c>
+      <c r="D158">
+        <v>481.7</v>
+      </c>
+      <c r="E158">
+        <v>207.9</v>
+      </c>
+      <c r="F158">
+        <v>5.78</v>
+      </c>
+      <c r="G158">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>134</v>
+      </c>
+      <c r="B159">
+        <v>1000000</v>
+      </c>
+      <c r="C159">
+        <v>10</v>
+      </c>
+      <c r="D159">
+        <v>522.79999999999995</v>
+      </c>
+      <c r="E159">
+        <v>191.3</v>
+      </c>
+      <c r="F159">
+        <v>2.25</v>
+      </c>
+      <c r="G159">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>137</v>
+      </c>
+      <c r="B162">
+        <v>2154</v>
+      </c>
+      <c r="C162">
+        <v>10</v>
+      </c>
+      <c r="D162">
+        <v>243.3</v>
+      </c>
+      <c r="E162">
+        <v>411.1</v>
+      </c>
+      <c r="F162">
+        <v>1.55</v>
+      </c>
+      <c r="G162">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>137</v>
+      </c>
+      <c r="B163">
+        <v>4641</v>
+      </c>
+      <c r="C163">
+        <v>10</v>
+      </c>
+      <c r="D163">
+        <v>256.39999999999998</v>
+      </c>
+      <c r="E163">
+        <v>390.2</v>
+      </c>
+      <c r="F163">
+        <v>1.36</v>
+      </c>
+      <c r="G163">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>137</v>
+      </c>
+      <c r="B164">
+        <v>10000</v>
+      </c>
+      <c r="C164">
+        <v>10</v>
+      </c>
+      <c r="D164">
+        <v>259.5</v>
+      </c>
+      <c r="E164">
+        <v>385.6</v>
+      </c>
+      <c r="F164">
+        <v>2.17</v>
+      </c>
+      <c r="G164">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>137</v>
+      </c>
+      <c r="B165">
+        <v>21544</v>
+      </c>
+      <c r="C165">
+        <v>10</v>
+      </c>
+      <c r="D165">
+        <v>272.39999999999998</v>
+      </c>
+      <c r="E165">
+        <v>367.1</v>
+      </c>
+      <c r="F165">
+        <v>1.06</v>
+      </c>
+      <c r="G165">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>137</v>
+      </c>
+      <c r="B166">
+        <v>46415</v>
+      </c>
+      <c r="C166">
+        <v>10</v>
+      </c>
+      <c r="D166">
+        <v>350.7</v>
+      </c>
+      <c r="E166">
+        <v>287.8</v>
+      </c>
+      <c r="F166">
+        <v>12.5</v>
+      </c>
+      <c r="G166">
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>137</v>
+      </c>
+      <c r="B167">
+        <v>100000</v>
+      </c>
+      <c r="C167">
+        <v>10</v>
+      </c>
+      <c r="D167">
+        <v>410.7</v>
+      </c>
+      <c r="E167">
+        <v>244.4</v>
+      </c>
+      <c r="F167">
+        <v>8.82</v>
+      </c>
+      <c r="G167">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>137</v>
+      </c>
+      <c r="B168">
+        <v>215443</v>
+      </c>
+      <c r="C168">
+        <v>10</v>
+      </c>
+      <c r="D168">
+        <v>436.6</v>
+      </c>
+      <c r="E168">
+        <v>229.2</v>
+      </c>
+      <c r="F168">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G168">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>137</v>
+      </c>
+      <c r="B169">
+        <v>464158</v>
+      </c>
+      <c r="C169">
+        <v>10</v>
+      </c>
+      <c r="D169">
+        <v>476.5</v>
+      </c>
+      <c r="E169">
+        <v>210</v>
+      </c>
+      <c r="F169">
+        <v>4.79</v>
+      </c>
+      <c r="G169">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>137</v>
+      </c>
+      <c r="B170">
+        <v>1000000</v>
+      </c>
+      <c r="C170">
+        <v>10</v>
+      </c>
+      <c r="D170">
+        <v>493</v>
+      </c>
+      <c r="E170">
+        <v>203.1</v>
+      </c>
+      <c r="F170">
+        <v>5.74</v>
+      </c>
+      <c r="G170">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>139</v>
+      </c>
+      <c r="B173">
+        <v>2154</v>
+      </c>
+      <c r="C173">
+        <v>10</v>
+      </c>
+      <c r="D173">
+        <v>3044.4</v>
+      </c>
+      <c r="E173">
+        <v>32.9</v>
+      </c>
+      <c r="F173">
+        <v>14.78</v>
+      </c>
+      <c r="G173">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>139</v>
+      </c>
+      <c r="B174">
+        <v>4641</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>139</v>
+      </c>
+      <c r="B175">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>139</v>
+      </c>
+      <c r="B176">
+        <v>21544</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>139</v>
+      </c>
+      <c r="B177">
+        <v>46415</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>139</v>
+      </c>
+      <c r="B178">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>139</v>
+      </c>
+      <c r="B179">
+        <v>215443</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>139</v>
+      </c>
+      <c r="B180">
+        <v>464158</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>139</v>
+      </c>
+      <c r="B181">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
@@ -15543,7 +22236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I100"/>
   <sheetViews>
@@ -17168,7 +23861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
@@ -17500,7 +24193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
@@ -17832,7 +24525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
@@ -18164,7 +24857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
